--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1853052.703832693</v>
+        <v>-1855718.114381709</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="E2" t="n">
-        <v>2.695996356597869</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.7374062165301714</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -735,73 +735,73 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="T3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="U3" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,14 +814,14 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>39.58387696184059</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>9.977552361264268</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,25 +899,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>39.58387696184059</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>2.695996356597868</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>7.613451958241598</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>12.68669557114269</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,16 +1218,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="G9" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>34.11888750173132</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,26 +1294,26 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.256111626157765</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>9.977552361264268</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.082705318338</v>
       </c>
       <c r="H11" t="n">
-        <v>296.2563973803192</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8560859017321</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>204.6226586226522</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>198.6245396622687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>19.49724650004247</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.1668788091853</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0980181947725</v>
+        <v>106.4692569656173</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>191.0274475752769</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.8574826379858</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2157769293808</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>26.98152692013605</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>110.2268990655191</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>204.1175893796232</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9988200546644</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>324.2794929511294</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>89.85188956723013</v>
       </c>
       <c r="S16" t="n">
         <v>190.1255024102732</v>
@@ -1819,19 +1819,19 @@
         <v>219.6363484556427</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>256.5717870760725</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.146057114277137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.32657882015201</v>
+        <v>62.32657882015195</v>
       </c>
       <c r="T17" t="n">
         <v>156.2172691342561</v>
       </c>
       <c r="U17" t="n">
-        <v>203.0984998092974</v>
+        <v>203.0984998092973</v>
       </c>
       <c r="V17" t="n">
         <v>279.8519382247678</v>
@@ -2002,25 +2002,25 @@
         <v>131.9316599365702</v>
       </c>
       <c r="C19" t="n">
-        <v>119.3465008532608</v>
+        <v>119.3465008532607</v>
       </c>
       <c r="D19" t="n">
         <v>100.7151527728453</v>
       </c>
       <c r="E19" t="n">
-        <v>98.5336424012021</v>
+        <v>98.53364240120207</v>
       </c>
       <c r="F19" t="n">
-        <v>97.52072777756361</v>
+        <v>97.52072777756415</v>
       </c>
       <c r="G19" t="n">
-        <v>118.145943140772</v>
+        <v>118.1459431407719</v>
       </c>
       <c r="H19" t="n">
-        <v>97.03655934453899</v>
+        <v>97.03655934453896</v>
       </c>
       <c r="I19" t="n">
-        <v>49.06724162340364</v>
+        <v>49.06724162340361</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>204.2373230784609</v>
       </c>
       <c r="W19" t="n">
-        <v>238.6226780912239</v>
+        <v>238.6226780912246</v>
       </c>
       <c r="X19" t="n">
         <v>177.8093351436701</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.32657882015199</v>
+        <v>62.32657882015201</v>
       </c>
       <c r="T20" t="n">
         <v>156.2172691342561</v>
@@ -2257,7 +2257,7 @@
         <v>97.03655934453899</v>
       </c>
       <c r="I22" t="n">
-        <v>49.06724162340363</v>
+        <v>49.06724162340364</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95156932186306</v>
+        <v>41.95156932186305</v>
       </c>
       <c r="S22" t="n">
         <v>142.2251821649061</v>
@@ -2302,7 +2302,7 @@
         <v>238.6226780912239</v>
       </c>
       <c r="X22" t="n">
-        <v>177.8093351436701</v>
+        <v>177.8093351436689</v>
       </c>
       <c r="Y22" t="n">
         <v>170.6843331067277</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.32657882015198</v>
+        <v>62.32657882015201</v>
       </c>
       <c r="T23" t="n">
         <v>156.2172691342561</v>
@@ -2476,25 +2476,25 @@
         <v>131.9316599365702</v>
       </c>
       <c r="C25" t="n">
-        <v>119.3465008532607</v>
+        <v>119.3465008532608</v>
       </c>
       <c r="D25" t="n">
         <v>100.7151527728453</v>
       </c>
       <c r="E25" t="n">
-        <v>98.53364240120209</v>
+        <v>98.5336424012021</v>
       </c>
       <c r="F25" t="n">
-        <v>97.52072777756416</v>
+        <v>97.52072777756418</v>
       </c>
       <c r="G25" t="n">
-        <v>118.1459431407719</v>
+        <v>118.145943140772</v>
       </c>
       <c r="H25" t="n">
-        <v>97.03655934453897</v>
+        <v>97.03655934453899</v>
       </c>
       <c r="I25" t="n">
-        <v>49.06724162340362</v>
+        <v>49.06724162340308</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>334.8335214181134</v>
+        <v>334.8335214181135</v>
       </c>
       <c r="C26" t="n">
-        <v>317.3725715256404</v>
+        <v>317.3725715256405</v>
       </c>
       <c r="D26" t="n">
-        <v>306.7827213753158</v>
+        <v>306.7827213753159</v>
       </c>
       <c r="E26" t="n">
-        <v>334.0300498268946</v>
+        <v>334.0300498268947</v>
       </c>
       <c r="F26" t="n">
-        <v>358.9757254963443</v>
+        <v>358.9757254963444</v>
       </c>
       <c r="G26" t="n">
         <v>363.0670066051173</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.32657882015195</v>
+        <v>62.32657882015201</v>
       </c>
       <c r="T26" t="n">
         <v>156.2172691342561</v>
       </c>
       <c r="U26" t="n">
-        <v>203.0984998092973</v>
+        <v>203.0984998092974</v>
       </c>
       <c r="V26" t="n">
         <v>279.8519382247678</v>
@@ -2621,7 +2621,7 @@
         <v>321.8307804331019</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.3376184106864</v>
+        <v>338.3376184106865</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>131.9316599365702</v>
       </c>
       <c r="C28" t="n">
-        <v>119.3465008532607</v>
+        <v>119.3465008532608</v>
       </c>
       <c r="D28" t="n">
-        <v>100.7151527728452</v>
+        <v>100.7151527728453</v>
       </c>
       <c r="E28" t="n">
-        <v>98.53364240120204</v>
+        <v>98.5336424012021</v>
       </c>
       <c r="F28" t="n">
-        <v>97.52072777756412</v>
+        <v>97.52072777756327</v>
       </c>
       <c r="G28" t="n">
-        <v>118.1459431407719</v>
+        <v>118.145943140772</v>
       </c>
       <c r="H28" t="n">
-        <v>97.03655934453893</v>
+        <v>97.03655934453899</v>
       </c>
       <c r="I28" t="n">
-        <v>49.06724162340358</v>
+        <v>49.06724162340364</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95156932186299</v>
+        <v>41.95156932186305</v>
       </c>
       <c r="S28" t="n">
-        <v>142.2251821649074</v>
+        <v>142.2251821649061</v>
       </c>
       <c r="T28" t="n">
-        <v>171.7360282102755</v>
+        <v>171.7360282102756</v>
       </c>
       <c r="U28" t="n">
-        <v>238.3126336944517</v>
+        <v>238.3126336944518</v>
       </c>
       <c r="V28" t="n">
         <v>204.2373230784609</v>
@@ -2776,10 +2776,10 @@
         <v>238.6226780912239</v>
       </c>
       <c r="X28" t="n">
-        <v>177.80933514367</v>
+        <v>177.8093351436701</v>
       </c>
       <c r="Y28" t="n">
-        <v>170.6843331067276</v>
+        <v>170.6843331067277</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>363.0670066051173</v>
       </c>
       <c r="H29" t="n">
-        <v>247.1744574010469</v>
+        <v>247.1744574010468</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.32657882015201</v>
+        <v>62.32657882015198</v>
       </c>
       <c r="T29" t="n">
-        <v>156.2172691342562</v>
+        <v>156.2172691342561</v>
       </c>
       <c r="U29" t="n">
         <v>203.0984998092974</v>
@@ -2950,25 +2950,25 @@
         <v>131.9316599365702</v>
       </c>
       <c r="C31" t="n">
-        <v>119.3465008532608</v>
+        <v>119.3465008532607</v>
       </c>
       <c r="D31" t="n">
         <v>100.7151527728453</v>
       </c>
       <c r="E31" t="n">
-        <v>98.53364240120212</v>
+        <v>98.53364240120209</v>
       </c>
       <c r="F31" t="n">
-        <v>97.52072777756419</v>
+        <v>97.52072777756416</v>
       </c>
       <c r="G31" t="n">
-        <v>118.145943140772</v>
+        <v>118.1459431407719</v>
       </c>
       <c r="H31" t="n">
-        <v>97.036559344539</v>
+        <v>97.03655934453897</v>
       </c>
       <c r="I31" t="n">
-        <v>49.06724162340365</v>
+        <v>49.06724162340362</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95156932186308</v>
+        <v>41.95156932186305</v>
       </c>
       <c r="S31" t="n">
         <v>142.2251821649061</v>
@@ -3281,7 +3281,7 @@
         <v>363.0670066051173</v>
       </c>
       <c r="H35" t="n">
-        <v>247.1744574010469</v>
+        <v>247.1744574010468</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.32657882015201</v>
+        <v>62.32657882015198</v>
       </c>
       <c r="T35" t="n">
-        <v>156.2172691342562</v>
+        <v>156.2172691342561</v>
       </c>
       <c r="U35" t="n">
         <v>203.0984998092974</v>
       </c>
       <c r="V35" t="n">
-        <v>279.8519382247679</v>
+        <v>279.8519382247678</v>
       </c>
       <c r="W35" t="n">
         <v>301.3406484720459</v>
@@ -3332,7 +3332,7 @@
         <v>321.8307804331019</v>
       </c>
       <c r="Y35" t="n">
-        <v>338.3376184106866</v>
+        <v>338.3376184106865</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>131.9316599365702</v>
       </c>
       <c r="C37" t="n">
-        <v>119.3465008532608</v>
+        <v>119.3465008532607</v>
       </c>
       <c r="D37" t="n">
         <v>100.7151527728453</v>
       </c>
       <c r="E37" t="n">
-        <v>98.53364240120212</v>
+        <v>98.53364240120209</v>
       </c>
       <c r="F37" t="n">
-        <v>97.52072777756419</v>
+        <v>97.52072777756416</v>
       </c>
       <c r="G37" t="n">
-        <v>118.145943140772</v>
+        <v>118.1459431407719</v>
       </c>
       <c r="H37" t="n">
-        <v>97.036559344539</v>
+        <v>97.03655934453897</v>
       </c>
       <c r="I37" t="n">
-        <v>49.06724162340365</v>
+        <v>49.06724162340362</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95156932186308</v>
+        <v>41.95156932186305</v>
       </c>
       <c r="S37" t="n">
         <v>142.2251821649061</v>
@@ -3487,7 +3487,7 @@
         <v>238.6226780912239</v>
       </c>
       <c r="X37" t="n">
-        <v>177.8093351436701</v>
+        <v>177.80933514367</v>
       </c>
       <c r="Y37" t="n">
         <v>170.6843331067277</v>
@@ -3515,10 +3515,10 @@
         <v>358.9757254963444</v>
       </c>
       <c r="G38" t="n">
-        <v>363.0670066051174</v>
+        <v>363.0670066051173</v>
       </c>
       <c r="H38" t="n">
-        <v>247.1744574010469</v>
+        <v>247.1744574010468</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.32657882015201</v>
+        <v>62.32657882015198</v>
       </c>
       <c r="T38" t="n">
-        <v>156.2172691342562</v>
+        <v>156.2172691342561</v>
       </c>
       <c r="U38" t="n">
         <v>203.0984998092974</v>
       </c>
       <c r="V38" t="n">
-        <v>279.8519382247679</v>
+        <v>279.8519382247678</v>
       </c>
       <c r="W38" t="n">
         <v>301.3406484720459</v>
@@ -3569,7 +3569,7 @@
         <v>321.8307804331019</v>
       </c>
       <c r="Y38" t="n">
-        <v>338.3376184106866</v>
+        <v>338.3376184106865</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>131.9316599365702</v>
       </c>
       <c r="C40" t="n">
-        <v>119.3465008532608</v>
+        <v>119.3465008532607</v>
       </c>
       <c r="D40" t="n">
         <v>100.7151527728453</v>
       </c>
       <c r="E40" t="n">
-        <v>98.53364240120212</v>
+        <v>98.53364240120209</v>
       </c>
       <c r="F40" t="n">
-        <v>97.52072777756419</v>
+        <v>97.52072777756416</v>
       </c>
       <c r="G40" t="n">
-        <v>118.145943140772</v>
+        <v>118.1459431407719</v>
       </c>
       <c r="H40" t="n">
-        <v>97.036559344539</v>
+        <v>97.03655934453897</v>
       </c>
       <c r="I40" t="n">
-        <v>49.06724162340365</v>
+        <v>49.06724162340362</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95156932186308</v>
+        <v>41.95156932186305</v>
       </c>
       <c r="S40" t="n">
         <v>142.2251821649061</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>334.8335214181136</v>
+        <v>334.8335214181135</v>
       </c>
       <c r="C41" t="n">
-        <v>317.3725715256406</v>
+        <v>317.3725715256405</v>
       </c>
       <c r="D41" t="n">
-        <v>306.782721375316</v>
+        <v>306.7827213753159</v>
       </c>
       <c r="E41" t="n">
         <v>334.0300498268948</v>
       </c>
       <c r="F41" t="n">
-        <v>358.9757254963445</v>
+        <v>358.9757254963444</v>
       </c>
       <c r="G41" t="n">
-        <v>363.0670066051175</v>
+        <v>363.0670066051174</v>
       </c>
       <c r="H41" t="n">
         <v>247.1744574010469</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.32657882015206</v>
+        <v>62.32657882015201</v>
       </c>
       <c r="T41" t="n">
         <v>156.2172691342562</v>
@@ -3803,7 +3803,7 @@
         <v>301.340648472046</v>
       </c>
       <c r="X41" t="n">
-        <v>321.8307804331021</v>
+        <v>321.830780433102</v>
       </c>
       <c r="Y41" t="n">
         <v>338.3376184106866</v>
@@ -3901,22 +3901,22 @@
         <v>119.3465008532608</v>
       </c>
       <c r="D43" t="n">
-        <v>100.7151527728454</v>
+        <v>100.7151527728453</v>
       </c>
       <c r="E43" t="n">
-        <v>98.53364240120219</v>
+        <v>98.53364240120213</v>
       </c>
       <c r="F43" t="n">
-        <v>97.52072777756426</v>
+        <v>97.5207277775642</v>
       </c>
       <c r="G43" t="n">
-        <v>118.1459431407721</v>
+        <v>118.145943140772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.03655934453907</v>
+        <v>97.03655934453901</v>
       </c>
       <c r="I43" t="n">
-        <v>49.06724162340372</v>
+        <v>49.06724162340367</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95156932186316</v>
+        <v>41.9515693218631</v>
       </c>
       <c r="S43" t="n">
-        <v>142.2251821649062</v>
+        <v>142.2251821649061</v>
       </c>
       <c r="T43" t="n">
         <v>171.7360282102757</v>
       </c>
       <c r="U43" t="n">
-        <v>238.3126336944519</v>
+        <v>238.3126336944518</v>
       </c>
       <c r="V43" t="n">
         <v>204.237323078461</v>
@@ -3961,7 +3961,7 @@
         <v>238.622678091224</v>
       </c>
       <c r="X43" t="n">
-        <v>177.8093351436702</v>
+        <v>177.8093351436701</v>
       </c>
       <c r="Y43" t="n">
         <v>170.6843331067278</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>131.9316599365702</v>
+        <v>131.9316599365703</v>
       </c>
       <c r="C46" t="n">
         <v>119.3465008532608</v>
@@ -4141,19 +4141,19 @@
         <v>100.7151527728453</v>
       </c>
       <c r="E46" t="n">
-        <v>98.53364240120212</v>
+        <v>98.53364240120213</v>
       </c>
       <c r="F46" t="n">
-        <v>97.52072777756419</v>
+        <v>97.5207277775642</v>
       </c>
       <c r="G46" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.036559344539</v>
+        <v>97.03655934453901</v>
       </c>
       <c r="I46" t="n">
-        <v>49.06724162340365</v>
+        <v>49.06724162340367</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95156932186308</v>
+        <v>41.9515693218631</v>
       </c>
       <c r="S46" t="n">
         <v>142.2251821649061</v>
       </c>
       <c r="T46" t="n">
-        <v>171.7360282102756</v>
+        <v>171.7360282102757</v>
       </c>
       <c r="U46" t="n">
-        <v>238.3126336944518</v>
+        <v>238.3126336944519</v>
       </c>
       <c r="V46" t="n">
-        <v>204.2373230784609</v>
+        <v>204.237323078461</v>
       </c>
       <c r="W46" t="n">
-        <v>238.6226780912239</v>
+        <v>238.622678091224</v>
       </c>
       <c r="X46" t="n">
         <v>177.8093351436701</v>
       </c>
       <c r="Y46" t="n">
-        <v>170.6843331067277</v>
+        <v>170.6843331067278</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108.260178376266</v>
+        <v>117.6069389803212</v>
       </c>
       <c r="C2" t="n">
-        <v>108.260178376266</v>
+        <v>117.6069389803212</v>
       </c>
       <c r="D2" t="n">
-        <v>68.2764642733967</v>
+        <v>77.62322487745189</v>
       </c>
       <c r="E2" t="n">
-        <v>65.55323563036855</v>
+        <v>37.6395107745826</v>
       </c>
       <c r="F2" t="n">
-        <v>58.60773488116507</v>
+        <v>30.69401002537914</v>
       </c>
       <c r="G2" t="n">
-        <v>43.15042425981653</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H2" t="n">
-        <v>43.15042425981653</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J2" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M2" t="n">
-        <v>79.95943146291799</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P2" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
-        <v>108.260178376266</v>
+        <v>157.5906530831905</v>
       </c>
       <c r="T2" t="n">
-        <v>108.260178376266</v>
+        <v>157.5906530831905</v>
       </c>
       <c r="U2" t="n">
-        <v>108.260178376266</v>
+        <v>157.5906530831905</v>
       </c>
       <c r="V2" t="n">
-        <v>108.260178376266</v>
+        <v>157.5906530831905</v>
       </c>
       <c r="W2" t="n">
-        <v>108.260178376266</v>
+        <v>157.5906530831905</v>
       </c>
       <c r="X2" t="n">
-        <v>108.260178376266</v>
+        <v>157.5906530831905</v>
       </c>
       <c r="Y2" t="n">
-        <v>108.260178376266</v>
+        <v>157.5906530831905</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C3" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D3" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E3" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F3" t="n">
         <v>3.166710156947247</v>
@@ -4413,19 +4413,19 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L3" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M3" t="n">
-        <v>81.54278654139161</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N3" t="n">
-        <v>81.54278654139161</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q3" t="n">
         <v>158.3355078473624</v>
@@ -4434,25 +4434,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X3" t="n">
-        <v>123.1178524655551</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y3" t="n">
-        <v>123.1178524655551</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.245045875396</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C4" t="n">
-        <v>13.245045875396</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D4" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E4" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F4" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G4" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H4" t="n">
         <v>3.166710156947247</v>
@@ -4510,28 +4510,28 @@
         <v>93.21247408113457</v>
       </c>
       <c r="R4" t="n">
-        <v>53.22875997826529</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S4" t="n">
-        <v>53.22875997826529</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T4" t="n">
-        <v>53.22875997826529</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U4" t="n">
-        <v>53.22875997826529</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V4" t="n">
-        <v>53.22875997826529</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W4" t="n">
-        <v>53.22875997826529</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X4" t="n">
-        <v>53.22875997826529</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.22875997826529</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110.6614382311177</v>
+        <v>108.260178376266</v>
       </c>
       <c r="C5" t="n">
-        <v>110.6614382311177</v>
+        <v>108.260178376266</v>
       </c>
       <c r="D5" t="n">
-        <v>70.67772412824843</v>
+        <v>108.260178376266</v>
       </c>
       <c r="E5" t="n">
-        <v>70.67772412824843</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="F5" t="n">
-        <v>30.69401002537914</v>
+        <v>61.33096352419322</v>
       </c>
       <c r="G5" t="n">
-        <v>15.2366994040306</v>
+        <v>45.87365290284468</v>
       </c>
       <c r="H5" t="n">
-        <v>15.2366994040306</v>
+        <v>5.889938799975397</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>5.889938799975397</v>
       </c>
       <c r="J5" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>3.166710156947247</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L5" t="n">
-        <v>3.166710156947247</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M5" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N5" t="n">
-        <v>81.54278654139161</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O5" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P5" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S5" t="n">
-        <v>118.3517937444931</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T5" t="n">
-        <v>118.3517937444931</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U5" t="n">
-        <v>118.3517937444931</v>
+        <v>108.260178376266</v>
       </c>
       <c r="V5" t="n">
-        <v>118.3517937444931</v>
+        <v>108.260178376266</v>
       </c>
       <c r="W5" t="n">
-        <v>110.6614382311177</v>
+        <v>108.260178376266</v>
       </c>
       <c r="X5" t="n">
-        <v>110.6614382311177</v>
+        <v>108.260178376266</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.6614382311177</v>
+        <v>108.260178376266</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.38436553875449</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="C6" t="n">
-        <v>38.38436553875449</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="D6" t="n">
-        <v>38.38436553875449</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="E6" t="n">
-        <v>38.38436553875449</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="F6" t="n">
-        <v>38.38436553875449</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="G6" t="n">
-        <v>38.38436553875449</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="H6" t="n">
-        <v>38.38436553875449</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J6" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="M6" t="n">
         <v>42.35474834916943</v>
       </c>
-      <c r="L6" t="n">
-        <v>42.35474834916943</v>
-      </c>
-      <c r="M6" t="n">
-        <v>79.95943146291799</v>
-      </c>
       <c r="N6" t="n">
-        <v>119.1474696551402</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O6" t="n">
-        <v>158.3355078473624</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P6" t="n">
         <v>158.3355078473624</v>
@@ -4668,28 +4668,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="U6" t="n">
-        <v>118.3517937444931</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="V6" t="n">
-        <v>118.3517937444931</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="W6" t="n">
-        <v>78.36807964162378</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="X6" t="n">
-        <v>78.36807964162378</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="Y6" t="n">
-        <v>38.38436553875449</v>
+        <v>83.88827101547153</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.22875997826529</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="C7" t="n">
-        <v>53.22875997826529</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="D7" t="n">
-        <v>43.15042425981653</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="E7" t="n">
-        <v>43.15042425981653</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="F7" t="n">
-        <v>43.15042425981653</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="G7" t="n">
-        <v>3.166710156947247</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="H7" t="n">
-        <v>3.166710156947247</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="I7" t="n">
-        <v>3.166710156947247</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K7" t="n">
         <v>3.166710156947247</v>
@@ -4741,34 +4741,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T7" t="n">
-        <v>93.21247408113457</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="U7" t="n">
-        <v>93.21247408113457</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="V7" t="n">
-        <v>93.21247408113457</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="W7" t="n">
-        <v>93.21247408113457</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="X7" t="n">
-        <v>93.21247408113457</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.22875997826529</v>
+        <v>90.46354404567346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65.55323563036853</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="C8" t="n">
-        <v>65.55323563036853</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="D8" t="n">
-        <v>25.56952152749925</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="E8" t="n">
-        <v>25.56952152749925</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="F8" t="n">
-        <v>18.62402077829578</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J8" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L8" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M8" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O8" t="n">
         <v>119.1474696551402</v>
@@ -4823,31 +4823,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R8" t="n">
-        <v>118.3517937444931</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S8" t="n">
-        <v>118.3517937444931</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T8" t="n">
-        <v>118.3517937444931</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U8" t="n">
-        <v>105.5369497332378</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V8" t="n">
-        <v>105.5369497332378</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W8" t="n">
-        <v>105.5369497332378</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="X8" t="n">
-        <v>65.55323563036853</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="Y8" t="n">
-        <v>65.55323563036853</v>
+        <v>108.260178376266</v>
       </c>
     </row>
     <row r="9">
@@ -4866,13 +4866,13 @@
         <v>83.88827101547153</v>
       </c>
       <c r="E9" t="n">
-        <v>83.88827101547153</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="F9" t="n">
         <v>43.90455691260225</v>
       </c>
       <c r="G9" t="n">
-        <v>3.920842809732961</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="H9" t="n">
         <v>3.920842809732961</v>
@@ -4887,19 +4887,19 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M9" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="N9" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="O9" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="P9" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="N9" t="n">
-        <v>119.1474696551402</v>
-      </c>
-      <c r="O9" t="n">
-        <v>119.1474696551402</v>
-      </c>
-      <c r="P9" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="Q9" t="n">
         <v>158.3355078473624</v>
@@ -4917,13 +4917,13 @@
         <v>158.3355078473624</v>
       </c>
       <c r="V9" t="n">
-        <v>123.8719851183408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W9" t="n">
-        <v>123.8719851183408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X9" t="n">
-        <v>123.8719851183408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y9" t="n">
         <v>123.8719851183408</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.13413836268582</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="C10" t="n">
-        <v>83.13413836268582</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="D10" t="n">
+        <v>90.46354404567346</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50.47982994280417</v>
+      </c>
+      <c r="F10" t="n">
+        <v>50.47982994280417</v>
+      </c>
+      <c r="G10" t="n">
         <v>43.15042425981653</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
         <v>43.15042425981653</v>
       </c>
-      <c r="F10" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.166710156947247</v>
-      </c>
       <c r="I10" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J10" t="n">
         <v>3.166710156947247</v>
@@ -4978,34 +4978,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T10" t="n">
-        <v>93.21247408113457</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U10" t="n">
-        <v>93.21247408113457</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="V10" t="n">
-        <v>93.21247408113457</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="W10" t="n">
-        <v>83.13413836268582</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="X10" t="n">
-        <v>83.13413836268582</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="Y10" t="n">
-        <v>83.13413836268582</v>
+        <v>90.46354404567346</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1516.875143800196</v>
+        <v>2001.82383037497</v>
       </c>
       <c r="C11" t="n">
-        <v>1516.875143800196</v>
+        <v>1632.861313434558</v>
       </c>
       <c r="D11" t="n">
-        <v>1158.609445193446</v>
+        <v>1274.595614827808</v>
       </c>
       <c r="E11" t="n">
-        <v>772.8211925952014</v>
+        <v>888.8073622295638</v>
       </c>
       <c r="F11" t="n">
-        <v>361.8352878055938</v>
+        <v>477.8214574399562</v>
       </c>
       <c r="G11" t="n">
-        <v>361.8352878055938</v>
+        <v>62.58640156284712</v>
       </c>
       <c r="H11" t="n">
-        <v>62.58640156284711</v>
+        <v>62.58640156284712</v>
       </c>
       <c r="I11" t="n">
-        <v>62.58640156284711</v>
+        <v>62.58640156284712</v>
       </c>
       <c r="J11" t="n">
-        <v>237.9392141677035</v>
+        <v>237.9392141677044</v>
       </c>
       <c r="K11" t="n">
-        <v>551.486142980965</v>
+        <v>551.486142980966</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3705957477707</v>
+        <v>977.3705957477716</v>
       </c>
       <c r="M11" t="n">
         <v>1482.918546043856</v>
       </c>
       <c r="N11" t="n">
-        <v>2001.260599088674</v>
+        <v>2001.260599088675</v>
       </c>
       <c r="O11" t="n">
-        <v>2477.381040081315</v>
+        <v>2477.381040081316</v>
       </c>
       <c r="P11" t="n">
         <v>2849.237820173867</v>
@@ -5063,28 +5063,28 @@
         <v>3080.314029071113</v>
       </c>
       <c r="R11" t="n">
-        <v>3129.320078142355</v>
+        <v>3129.320078142356</v>
       </c>
       <c r="S11" t="n">
-        <v>3015.324031776969</v>
+        <v>3129.320078142356</v>
       </c>
       <c r="T11" t="n">
-        <v>2808.634477612674</v>
+        <v>3129.320078142356</v>
       </c>
       <c r="U11" t="n">
-        <v>2608.003629468968</v>
+        <v>3129.320078142356</v>
       </c>
       <c r="V11" t="n">
-        <v>2276.940742125398</v>
+        <v>2798.257190798785</v>
       </c>
       <c r="W11" t="n">
-        <v>2276.940742125398</v>
+        <v>2798.257190798785</v>
       </c>
       <c r="X11" t="n">
-        <v>1903.474983864318</v>
+        <v>2778.563002414904</v>
       </c>
       <c r="Y11" t="n">
-        <v>1903.474983864318</v>
+        <v>2388.423670439092</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>74.36112008740227</v>
       </c>
       <c r="I12" t="n">
-        <v>62.58640156284711</v>
+        <v>62.58640156284712</v>
       </c>
       <c r="J12" t="n">
         <v>148.2074885062791</v>
@@ -5130,16 +5130,16 @@
         <v>1146.556778119373</v>
       </c>
       <c r="N12" t="n">
-        <v>1597.902412599711</v>
+        <v>1685.373014755788</v>
       </c>
       <c r="O12" t="n">
-        <v>2115.677025447656</v>
+        <v>2076.046297579573</v>
       </c>
       <c r="P12" t="n">
-        <v>2409.893711035482</v>
+        <v>2370.2629831674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2556.650577309663</v>
+        <v>2517.01984944158</v>
       </c>
       <c r="R12" t="n">
         <v>2556.650577309663</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>697.3280934397985</v>
+        <v>170.1311055685211</v>
       </c>
       <c r="C13" t="n">
-        <v>528.3919105118916</v>
+        <v>170.1311055685211</v>
       </c>
       <c r="D13" t="n">
-        <v>378.2752710995559</v>
+        <v>170.1311055685211</v>
       </c>
       <c r="E13" t="n">
-        <v>230.3621775171628</v>
+        <v>170.1311055685211</v>
       </c>
       <c r="F13" t="n">
-        <v>230.3621775171628</v>
+        <v>170.1311055685211</v>
       </c>
       <c r="G13" t="n">
-        <v>62.58640156284711</v>
+        <v>62.58640156284712</v>
       </c>
       <c r="H13" t="n">
-        <v>62.58640156284711</v>
+        <v>62.58640156284712</v>
       </c>
       <c r="I13" t="n">
-        <v>62.58640156284711</v>
+        <v>62.58640156284712</v>
       </c>
       <c r="J13" t="n">
         <v>102.6548439772311</v>
@@ -5227,22 +5227,22 @@
         <v>1566.431299320303</v>
       </c>
       <c r="T13" t="n">
-        <v>1566.431299320303</v>
+        <v>1344.353034029408</v>
       </c>
       <c r="U13" t="n">
-        <v>1566.431299320303</v>
+        <v>1055.246188646195</v>
       </c>
       <c r="V13" t="n">
-        <v>1311.746811114416</v>
+        <v>800.5617004403083</v>
       </c>
       <c r="W13" t="n">
-        <v>1022.329641077455</v>
+        <v>800.5617004403083</v>
       </c>
       <c r="X13" t="n">
-        <v>1022.329641077455</v>
+        <v>572.572149542291</v>
       </c>
       <c r="Y13" t="n">
-        <v>801.5370619339251</v>
+        <v>351.7795703987608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2030.853368876586</v>
+        <v>2361.86499988724</v>
       </c>
       <c r="C14" t="n">
-        <v>1661.890851936174</v>
+        <v>1992.902482946828</v>
       </c>
       <c r="D14" t="n">
         <v>1634.636784340077</v>
@@ -5264,64 +5264,64 @@
         <v>1248.848531741833</v>
       </c>
       <c r="F14" t="n">
-        <v>837.8626269522251</v>
+        <v>837.8626269522256</v>
       </c>
       <c r="G14" t="n">
-        <v>422.7441149820388</v>
+        <v>422.7441149820393</v>
       </c>
       <c r="H14" t="n">
-        <v>124.6887840260656</v>
+        <v>124.6887840260655</v>
       </c>
       <c r="I14" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J14" t="n">
         <v>265.9635769441826</v>
       </c>
       <c r="K14" t="n">
-        <v>914.9442722453221</v>
+        <v>594.040313799869</v>
       </c>
       <c r="L14" t="n">
-        <v>1358.854236702271</v>
+        <v>1300.202539549648</v>
       </c>
       <c r="M14" t="n">
-        <v>1884.459041897912</v>
+        <v>1825.80734474529</v>
       </c>
       <c r="N14" t="n">
-        <v>2423.182490723359</v>
+        <v>2797.5042487386</v>
       </c>
       <c r="O14" t="n">
-        <v>2974.289542728781</v>
+        <v>3292.870263818548</v>
       </c>
       <c r="P14" t="n">
-        <v>3681.152696132523</v>
+        <v>3681.152696132522</v>
       </c>
       <c r="Q14" t="n">
-        <v>3924.563885784985</v>
+        <v>3924.563885784984</v>
       </c>
       <c r="R14" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S14" t="n">
-        <v>3934.464054698591</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="T14" t="n">
-        <v>3728.28467148685</v>
+        <v>3839.624973573232</v>
       </c>
       <c r="U14" t="n">
-        <v>3474.750509815472</v>
+        <v>3839.624973573232</v>
       </c>
       <c r="V14" t="n">
-        <v>3143.687622471902</v>
+        <v>3512.069930188253</v>
       </c>
       <c r="W14" t="n">
-        <v>2790.918967201787</v>
+        <v>3512.069930188253</v>
       </c>
       <c r="X14" t="n">
-        <v>2417.453208940708</v>
+        <v>3138.604171927173</v>
       </c>
       <c r="Y14" t="n">
-        <v>2417.453208940708</v>
+        <v>2748.464839951362</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H15" t="n">
-        <v>90.5438827333745</v>
+        <v>90.54388273337449</v>
       </c>
       <c r="I15" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J15" t="n">
         <v>172.3112574064236</v>
@@ -5367,7 +5367,7 @@
         <v>1209.284529879931</v>
       </c>
       <c r="N15" t="n">
-        <v>1705.095525064084</v>
+        <v>1676.525311624793</v>
       </c>
       <c r="O15" t="n">
         <v>2110.309762265828</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>960.4424811167605</v>
+        <v>493.4765651941248</v>
       </c>
       <c r="C16" t="n">
-        <v>791.5062981888536</v>
+        <v>493.4765651941248</v>
       </c>
       <c r="D16" t="n">
-        <v>641.3896587765179</v>
+        <v>493.4765651941248</v>
       </c>
       <c r="E16" t="n">
         <v>493.4765651941248</v>
@@ -5431,25 +5431,25 @@
         <v>178.8631193263769</v>
       </c>
       <c r="I16" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J16" t="n">
         <v>124.6070038707675</v>
       </c>
       <c r="K16" t="n">
-        <v>326.2414380993576</v>
+        <v>326.2414380993575</v>
       </c>
       <c r="L16" t="n">
-        <v>639.7905282089208</v>
+        <v>639.7905282089207</v>
       </c>
       <c r="M16" t="n">
-        <v>980.7732039975233</v>
+        <v>980.7732039975231</v>
       </c>
       <c r="N16" t="n">
         <v>1319.08269031148</v>
       </c>
       <c r="O16" t="n">
-        <v>1615.549962385023</v>
+        <v>1615.549962385022</v>
       </c>
       <c r="P16" t="n">
         <v>1845.708247718941</v>
@@ -5458,28 +5458,28 @@
         <v>1921.622834289096</v>
       </c>
       <c r="R16" t="n">
-        <v>1921.622834289096</v>
+        <v>1830.863349877752</v>
       </c>
       <c r="S16" t="n">
-        <v>1729.576872258517</v>
+        <v>1638.817387847173</v>
       </c>
       <c r="T16" t="n">
-        <v>1507.721974828575</v>
+        <v>1416.962490417231</v>
       </c>
       <c r="U16" t="n">
-        <v>1507.721974828575</v>
+        <v>1157.799069128269</v>
       </c>
       <c r="V16" t="n">
-        <v>1253.037486622688</v>
+        <v>903.1145809223818</v>
       </c>
       <c r="W16" t="n">
-        <v>963.6203165857271</v>
+        <v>903.1145809223818</v>
       </c>
       <c r="X16" t="n">
-        <v>963.6203165857271</v>
+        <v>675.1250300243645</v>
       </c>
       <c r="Y16" t="n">
-        <v>960.4424811167605</v>
+        <v>675.1250300243645</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2027.787331812831</v>
+        <v>2027.78733181283</v>
       </c>
       <c r="C17" t="n">
-        <v>1707.208976736427</v>
+        <v>1707.208976736425</v>
       </c>
       <c r="D17" t="n">
-        <v>1397.327439993683</v>
+        <v>1397.327439993682</v>
       </c>
       <c r="E17" t="n">
-        <v>1059.923349259446</v>
+        <v>1059.923349259445</v>
       </c>
       <c r="F17" t="n">
-        <v>697.3216063338459</v>
+        <v>697.3216063338446</v>
       </c>
       <c r="G17" t="n">
         <v>330.587256227666</v>
       </c>
       <c r="H17" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="I17" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J17" t="n">
-        <v>265.9635769441827</v>
+        <v>265.9635769441826</v>
       </c>
       <c r="K17" t="n">
-        <v>594.0403137998691</v>
+        <v>914.9442722453221</v>
       </c>
       <c r="L17" t="n">
-        <v>1037.950278256818</v>
+        <v>1358.854236702271</v>
       </c>
       <c r="M17" t="n">
-        <v>2008.573481610364</v>
+        <v>1884.459041897912</v>
       </c>
       <c r="N17" t="n">
-        <v>2547.296930435809</v>
+        <v>2423.182490723359</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.870263818549</v>
+        <v>2918.548505803306</v>
       </c>
       <c r="P17" t="n">
-        <v>3681.152696132523</v>
+        <v>3625.411659207048</v>
       </c>
       <c r="Q17" t="n">
-        <v>3924.563885784986</v>
+        <v>3924.563885784984</v>
       </c>
       <c r="R17" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S17" t="n">
-        <v>3982.848216562598</v>
+        <v>3982.848216562596</v>
       </c>
       <c r="T17" t="n">
-        <v>3825.052995214865</v>
+        <v>3825.052995214863</v>
       </c>
       <c r="U17" t="n">
-        <v>3619.902995407494</v>
+        <v>3619.902995407492</v>
       </c>
       <c r="V17" t="n">
-        <v>3337.22426992793</v>
+        <v>3337.224269927928</v>
       </c>
       <c r="W17" t="n">
-        <v>3032.839776521823</v>
+        <v>3032.839776521821</v>
       </c>
       <c r="X17" t="n">
-        <v>2707.758180124751</v>
+        <v>2707.758180124749</v>
       </c>
       <c r="Y17" t="n">
-        <v>2366.003010012946</v>
+        <v>2366.003010012944</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>464.2061016507203</v>
       </c>
       <c r="F18" t="n">
-        <v>317.6715436776053</v>
+        <v>317.6715436776052</v>
       </c>
       <c r="G18" t="n">
         <v>181.2837982663734</v>
       </c>
       <c r="H18" t="n">
-        <v>90.54388273337452</v>
+        <v>90.54388273337449</v>
       </c>
       <c r="I18" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J18" t="n">
         <v>172.3112574064236</v>
       </c>
       <c r="K18" t="n">
-        <v>406.6749853325574</v>
+        <v>435.2451987718487</v>
       </c>
       <c r="L18" t="n">
-        <v>768.128480964808</v>
+        <v>796.6986944040993</v>
       </c>
       <c r="M18" t="n">
-        <v>1209.284529879931</v>
+        <v>1237.854743319223</v>
       </c>
       <c r="N18" t="n">
-        <v>1676.525311624793</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O18" t="n">
-        <v>2081.739548826537</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P18" t="n">
-        <v>2387.626632255859</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q18" t="n">
-        <v>2542.18485042445</v>
+        <v>2570.755063863742</v>
       </c>
       <c r="R18" t="n">
         <v>2570.755063863742</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.1542365433625</v>
+        <v>768.1542365433628</v>
       </c>
       <c r="C19" t="n">
-        <v>647.6022154794626</v>
+        <v>647.6022154794631</v>
       </c>
       <c r="D19" t="n">
-        <v>545.8697379311341</v>
+        <v>545.8697379311345</v>
       </c>
       <c r="E19" t="n">
-        <v>446.3408062127481</v>
+        <v>446.3408062127486</v>
       </c>
       <c r="F19" t="n">
-        <v>347.8350205788455</v>
+        <v>347.8350205788454</v>
       </c>
       <c r="G19" t="n">
-        <v>228.4956840730152</v>
+        <v>228.4956840730151</v>
       </c>
       <c r="H19" t="n">
-        <v>130.4789574623697</v>
+        <v>130.4789574623698</v>
       </c>
       <c r="I19" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J19" t="n">
         <v>172.0283209136809</v>
       </c>
       <c r="K19" t="n">
-        <v>421.0840721851845</v>
+        <v>421.0840721851844</v>
       </c>
       <c r="L19" t="n">
-        <v>782.0544793376612</v>
+        <v>782.0544793376611</v>
       </c>
       <c r="M19" t="n">
         <v>1170.458472169177</v>
@@ -5707,16 +5707,16 @@
         <v>1700.765680337962</v>
       </c>
       <c r="V19" t="n">
-        <v>1494.465353996082</v>
+        <v>1494.465353996083</v>
       </c>
       <c r="W19" t="n">
-        <v>1253.432345823129</v>
+        <v>1253.432345823128</v>
       </c>
       <c r="X19" t="n">
         <v>1073.826956789118</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.418539509595</v>
+        <v>901.4185395095953</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2027.787331812832</v>
+        <v>2027.787331812831</v>
       </c>
       <c r="C20" t="n">
-        <v>1707.208976736428</v>
+        <v>1707.208976736426</v>
       </c>
       <c r="D20" t="n">
-        <v>1397.327439993684</v>
+        <v>1397.327439993683</v>
       </c>
       <c r="E20" t="n">
-        <v>1059.923349259447</v>
+        <v>1059.923349259446</v>
       </c>
       <c r="F20" t="n">
-        <v>697.3216063338464</v>
+        <v>697.3216063338455</v>
       </c>
       <c r="G20" t="n">
         <v>330.587256227666</v>
       </c>
       <c r="H20" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="I20" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J20" t="n">
         <v>265.9635769441826</v>
       </c>
       <c r="K20" t="n">
-        <v>594.040313799869</v>
+        <v>914.9442722453221</v>
       </c>
       <c r="L20" t="n">
-        <v>1037.950278256817</v>
+        <v>1358.854236702271</v>
       </c>
       <c r="M20" t="n">
-        <v>2008.573481610363</v>
+        <v>1884.459041897912</v>
       </c>
       <c r="N20" t="n">
-        <v>2652.371663659548</v>
+        <v>2543.982783323085</v>
       </c>
       <c r="O20" t="n">
-        <v>3147.737678739496</v>
+        <v>3039.348798403033</v>
       </c>
       <c r="P20" t="n">
-        <v>3536.020111053469</v>
+        <v>3746.211951806774</v>
       </c>
       <c r="Q20" t="n">
-        <v>3989.623141459238</v>
+        <v>3989.623141459237</v>
       </c>
       <c r="R20" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S20" t="n">
         <v>3982.848216562598</v>
       </c>
       <c r="T20" t="n">
-        <v>3825.052995214865</v>
+        <v>3825.052995214864</v>
       </c>
       <c r="U20" t="n">
         <v>3619.902995407494</v>
       </c>
       <c r="V20" t="n">
-        <v>3337.224269927931</v>
+        <v>3337.22426992793</v>
       </c>
       <c r="W20" t="n">
-        <v>3032.839776521824</v>
+        <v>3032.839776521823</v>
       </c>
       <c r="X20" t="n">
-        <v>2707.758180124752</v>
+        <v>2707.75818012475</v>
       </c>
       <c r="Y20" t="n">
-        <v>2366.003010012947</v>
+        <v>2366.003010012946</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H21" t="n">
-        <v>90.5438827333745</v>
+        <v>90.54388273337449</v>
       </c>
       <c r="I21" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J21" t="n">
         <v>172.3112574064236</v>
@@ -5844,7 +5844,7 @@
         <v>1676.525311624793</v>
       </c>
       <c r="O21" t="n">
-        <v>2110.309762265828</v>
+        <v>2081.739548826537</v>
       </c>
       <c r="P21" t="n">
         <v>2416.19684569515</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.1542365433629</v>
+        <v>768.1542365433645</v>
       </c>
       <c r="C22" t="n">
-        <v>647.6022154794631</v>
+        <v>647.6022154794648</v>
       </c>
       <c r="D22" t="n">
-        <v>545.8697379311345</v>
+        <v>545.8697379311362</v>
       </c>
       <c r="E22" t="n">
-        <v>446.3408062127485</v>
+        <v>446.3408062127503</v>
       </c>
       <c r="F22" t="n">
-        <v>347.8350205788453</v>
+        <v>347.8350205788454</v>
       </c>
       <c r="G22" t="n">
-        <v>228.4956840730151</v>
+        <v>228.4956840730152</v>
       </c>
       <c r="H22" t="n">
-        <v>130.4789574623696</v>
+        <v>130.4789574623698</v>
       </c>
       <c r="I22" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J22" t="n">
         <v>172.0283209136809</v>
@@ -5926,7 +5926,7 @@
         <v>1900.077864642503</v>
       </c>
       <c r="P22" t="n">
-        <v>2177.657467019334</v>
+        <v>2177.657467019335</v>
       </c>
       <c r="Q22" t="n">
         <v>2300.993370632403</v>
@@ -5944,16 +5944,16 @@
         <v>1700.765680337962</v>
       </c>
       <c r="V22" t="n">
-        <v>1494.465353996082</v>
+        <v>1494.465353996083</v>
       </c>
       <c r="W22" t="n">
         <v>1253.432345823129</v>
       </c>
       <c r="X22" t="n">
-        <v>1073.826956789118</v>
+        <v>1073.82695678912</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.4185395095955</v>
+        <v>901.4185395095971</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2027.787331812831</v>
+        <v>2027.78733181283</v>
       </c>
       <c r="C23" t="n">
-        <v>1707.208976736427</v>
+        <v>1707.208976736425</v>
       </c>
       <c r="D23" t="n">
-        <v>1397.327439993683</v>
+        <v>1397.327439993682</v>
       </c>
       <c r="E23" t="n">
-        <v>1059.923349259447</v>
+        <v>1059.923349259445</v>
       </c>
       <c r="F23" t="n">
-        <v>697.3216063338459</v>
+        <v>697.3216063338448</v>
       </c>
       <c r="G23" t="n">
-        <v>330.587256227666</v>
+        <v>330.5872562276656</v>
       </c>
       <c r="H23" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569914</v>
       </c>
       <c r="I23" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J23" t="n">
-        <v>265.9635769441827</v>
+        <v>265.9635769441826</v>
       </c>
       <c r="K23" t="n">
-        <v>914.9442722453222</v>
+        <v>594.040313799869</v>
       </c>
       <c r="L23" t="n">
-        <v>1358.854236702271</v>
+        <v>1037.950278256817</v>
       </c>
       <c r="M23" t="n">
-        <v>1890.866600419544</v>
+        <v>2008.573481610363</v>
       </c>
       <c r="N23" t="n">
-        <v>2862.563504412854</v>
+        <v>2547.296930435809</v>
       </c>
       <c r="O23" t="n">
-        <v>3357.929519492802</v>
+        <v>3357.9295194928</v>
       </c>
       <c r="P23" t="n">
-        <v>3746.211951806776</v>
+        <v>3746.211951806774</v>
       </c>
       <c r="Q23" t="n">
-        <v>3989.623141459238</v>
+        <v>3989.623141459237</v>
       </c>
       <c r="R23" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S23" t="n">
-        <v>3982.848216562598</v>
+        <v>3982.848216562597</v>
       </c>
       <c r="T23" t="n">
-        <v>3825.052995214865</v>
+        <v>3825.052995214864</v>
       </c>
       <c r="U23" t="n">
-        <v>3619.902995407494</v>
+        <v>3619.902995407493</v>
       </c>
       <c r="V23" t="n">
-        <v>3337.22426992793</v>
+        <v>3337.224269927929</v>
       </c>
       <c r="W23" t="n">
-        <v>3032.839776521823</v>
+        <v>3032.839776521822</v>
       </c>
       <c r="X23" t="n">
-        <v>2707.758180124751</v>
+        <v>2707.758180124749</v>
       </c>
       <c r="Y23" t="n">
-        <v>2366.003010012946</v>
+        <v>2366.003010012945</v>
       </c>
     </row>
     <row r="24">
@@ -6054,31 +6054,31 @@
         <v>464.2061016507203</v>
       </c>
       <c r="F24" t="n">
-        <v>317.6715436776053</v>
+        <v>317.6715436776052</v>
       </c>
       <c r="G24" t="n">
         <v>181.2837982663734</v>
       </c>
       <c r="H24" t="n">
-        <v>90.54388273337452</v>
+        <v>90.54388273337449</v>
       </c>
       <c r="I24" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J24" t="n">
         <v>172.3112574064236</v>
       </c>
       <c r="K24" t="n">
-        <v>406.6749853325574</v>
+        <v>435.2451987718487</v>
       </c>
       <c r="L24" t="n">
-        <v>768.128480964808</v>
+        <v>796.6986944040993</v>
       </c>
       <c r="M24" t="n">
-        <v>1209.284529879931</v>
+        <v>1237.854743319223</v>
       </c>
       <c r="N24" t="n">
-        <v>1676.525311624793</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O24" t="n">
         <v>2110.309762265828</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.1542365433627</v>
+        <v>768.1542365433629</v>
       </c>
       <c r="C25" t="n">
-        <v>647.6022154794629</v>
+        <v>647.6022154794631</v>
       </c>
       <c r="D25" t="n">
-        <v>545.8697379311343</v>
+        <v>545.8697379311345</v>
       </c>
       <c r="E25" t="n">
-        <v>446.3408062127483</v>
+        <v>446.3408062127486</v>
       </c>
       <c r="F25" t="n">
-        <v>347.8350205788451</v>
+        <v>347.8350205788454</v>
       </c>
       <c r="G25" t="n">
-        <v>228.4956840730148</v>
+        <v>228.4956840730151</v>
       </c>
       <c r="H25" t="n">
-        <v>130.4789574623694</v>
+        <v>130.4789574623692</v>
       </c>
       <c r="I25" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J25" t="n">
-        <v>172.0283209136806</v>
+        <v>172.0283209136809</v>
       </c>
       <c r="K25" t="n">
-        <v>421.0840721851841</v>
+        <v>421.0840721851843</v>
       </c>
       <c r="L25" t="n">
-        <v>782.0544793376605</v>
+        <v>782.054479337661</v>
       </c>
       <c r="M25" t="n">
-        <v>1170.458472169176</v>
+        <v>1170.458472169177</v>
       </c>
       <c r="N25" t="n">
         <v>1556.189275526047</v>
@@ -6166,7 +6166,7 @@
         <v>2177.657467019334</v>
       </c>
       <c r="Q25" t="n">
-        <v>2300.993370632403</v>
+        <v>2300.993370632404</v>
       </c>
       <c r="R25" t="n">
         <v>2258.618048085067</v>
@@ -6178,19 +6178,19 @@
         <v>1941.48551235256</v>
       </c>
       <c r="U25" t="n">
-        <v>1700.765680337962</v>
+        <v>1700.765680337963</v>
       </c>
       <c r="V25" t="n">
-        <v>1494.465353996082</v>
+        <v>1494.465353996083</v>
       </c>
       <c r="W25" t="n">
-        <v>1253.432345823128</v>
+        <v>1253.432345823129</v>
       </c>
       <c r="X25" t="n">
         <v>1073.826956789118</v>
       </c>
       <c r="Y25" t="n">
-        <v>901.4185395095952</v>
+        <v>901.4185395095955</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2027.787331812831</v>
+        <v>2027.78733181283</v>
       </c>
       <c r="C26" t="n">
-        <v>1707.208976736427</v>
+        <v>1707.208976736425</v>
       </c>
       <c r="D26" t="n">
-        <v>1397.327439993683</v>
+        <v>1397.327439993682</v>
       </c>
       <c r="E26" t="n">
-        <v>1059.923349259446</v>
+        <v>1059.923349259445</v>
       </c>
       <c r="F26" t="n">
-        <v>697.3216063338459</v>
+        <v>697.3216063338446</v>
       </c>
       <c r="G26" t="n">
-        <v>330.5872562276659</v>
+        <v>330.587256227666</v>
       </c>
       <c r="H26" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="I26" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J26" t="n">
-        <v>265.9635769441826</v>
+        <v>433.3692259645356</v>
       </c>
       <c r="K26" t="n">
-        <v>594.040313799869</v>
+        <v>856.2925750927</v>
       </c>
       <c r="L26" t="n">
-        <v>1037.950278256817</v>
+        <v>1300.202539549648</v>
       </c>
       <c r="M26" t="n">
-        <v>2008.573481610363</v>
+        <v>1825.80734474529</v>
       </c>
       <c r="N26" t="n">
-        <v>2547.296930435809</v>
+        <v>2797.5042487386</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.662945515757</v>
+        <v>3292.870263818548</v>
       </c>
       <c r="P26" t="n">
-        <v>3746.211951806775</v>
+        <v>3681.152696132522</v>
       </c>
       <c r="Q26" t="n">
-        <v>3989.623141459238</v>
+        <v>3924.563885784984</v>
       </c>
       <c r="R26" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S26" t="n">
-        <v>3982.848216562598</v>
+        <v>3982.848216562597</v>
       </c>
       <c r="T26" t="n">
         <v>3825.052995214864</v>
       </c>
       <c r="U26" t="n">
-        <v>3619.902995407494</v>
+        <v>3619.902995407492</v>
       </c>
       <c r="V26" t="n">
-        <v>3337.22426992793</v>
+        <v>3337.224269927929</v>
       </c>
       <c r="W26" t="n">
-        <v>3032.839776521823</v>
+        <v>3032.839776521821</v>
       </c>
       <c r="X26" t="n">
-        <v>2707.75818012475</v>
+        <v>2707.758180124749</v>
       </c>
       <c r="Y26" t="n">
-        <v>2366.003010012946</v>
+        <v>2366.003010012944</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H27" t="n">
-        <v>90.5438827333745</v>
+        <v>90.54388273337449</v>
       </c>
       <c r="I27" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J27" t="n">
         <v>172.3112574064236</v>
@@ -6315,10 +6315,10 @@
         <v>1209.284529879931</v>
       </c>
       <c r="N27" t="n">
-        <v>1705.095525064084</v>
+        <v>1676.525311624793</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.309762265828</v>
+        <v>2081.739548826537</v>
       </c>
       <c r="P27" t="n">
         <v>2416.19684569515</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.1542365433625</v>
+        <v>768.1542365433621</v>
       </c>
       <c r="C28" t="n">
-        <v>647.6022154794628</v>
+        <v>647.6022154794623</v>
       </c>
       <c r="D28" t="n">
-        <v>545.8697379311343</v>
+        <v>545.8697379311337</v>
       </c>
       <c r="E28" t="n">
-        <v>446.3408062127484</v>
+        <v>446.3408062127478</v>
       </c>
       <c r="F28" t="n">
-        <v>347.8350205788453</v>
+        <v>347.8350205788455</v>
       </c>
       <c r="G28" t="n">
-        <v>228.4956840730151</v>
+        <v>228.4956840730152</v>
       </c>
       <c r="H28" t="n">
-        <v>130.4789574623697</v>
+        <v>130.4789574623698</v>
       </c>
       <c r="I28" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J28" t="n">
-        <v>172.028320913681</v>
+        <v>172.0283209136809</v>
       </c>
       <c r="K28" t="n">
-        <v>421.0840721851845</v>
+        <v>421.0840721851843</v>
       </c>
       <c r="L28" t="n">
         <v>782.054479337661</v>
@@ -6400,34 +6400,34 @@
         <v>1900.077864642503</v>
       </c>
       <c r="P28" t="n">
-        <v>2177.657467019335</v>
+        <v>2177.657467019334</v>
       </c>
       <c r="Q28" t="n">
         <v>2300.993370632403</v>
       </c>
       <c r="R28" t="n">
-        <v>2258.618048085067</v>
+        <v>2258.618048085066</v>
       </c>
       <c r="S28" t="n">
-        <v>2114.956247918494</v>
+        <v>2114.956247918495</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.485512352559</v>
+        <v>1941.48551235256</v>
       </c>
       <c r="U28" t="n">
-        <v>1700.765680337961</v>
+        <v>1700.765680337962</v>
       </c>
       <c r="V28" t="n">
         <v>1494.465353996082</v>
       </c>
       <c r="W28" t="n">
-        <v>1253.432345823128</v>
+        <v>1253.432345823129</v>
       </c>
       <c r="X28" t="n">
         <v>1073.826956789118</v>
       </c>
       <c r="Y28" t="n">
-        <v>901.4185395095949</v>
+        <v>901.4185395095947</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2027.787331812831</v>
+        <v>2027.78733181283</v>
       </c>
       <c r="C29" t="n">
-        <v>1707.208976736426</v>
+        <v>1707.208976736425</v>
       </c>
       <c r="D29" t="n">
-        <v>1397.327439993683</v>
+        <v>1397.327439993682</v>
       </c>
       <c r="E29" t="n">
-        <v>1059.923349259446</v>
+        <v>1059.923349259445</v>
       </c>
       <c r="F29" t="n">
-        <v>697.3216063338456</v>
+        <v>697.321606333845</v>
       </c>
       <c r="G29" t="n">
         <v>330.587256227666</v>
       </c>
       <c r="H29" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="I29" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J29" t="n">
-        <v>265.9635769441827</v>
+        <v>265.9635769441826</v>
       </c>
       <c r="K29" t="n">
-        <v>594.0403137998691</v>
+        <v>594.040313799869</v>
       </c>
       <c r="L29" t="n">
-        <v>1037.950278256818</v>
+        <v>1451.434880661763</v>
       </c>
       <c r="M29" t="n">
-        <v>1946.847876137291</v>
+        <v>2323.840055587407</v>
       </c>
       <c r="N29" t="n">
-        <v>2485.571324962737</v>
+        <v>2862.563504412853</v>
       </c>
       <c r="O29" t="n">
-        <v>3357.929519492802</v>
+        <v>3357.9295194928</v>
       </c>
       <c r="P29" t="n">
-        <v>3746.211951806776</v>
+        <v>3746.211951806774</v>
       </c>
       <c r="Q29" t="n">
-        <v>3989.623141459239</v>
+        <v>3989.623141459237</v>
       </c>
       <c r="R29" t="n">
-        <v>4045.804356784975</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S29" t="n">
-        <v>3982.848216562599</v>
+        <v>3982.848216562597</v>
       </c>
       <c r="T29" t="n">
-        <v>3825.052995214865</v>
+        <v>3825.052995214864</v>
       </c>
       <c r="U29" t="n">
-        <v>3619.902995407494</v>
+        <v>3619.902995407492</v>
       </c>
       <c r="V29" t="n">
-        <v>3337.22426992793</v>
+        <v>3337.224269927929</v>
       </c>
       <c r="W29" t="n">
-        <v>3032.839776521823</v>
+        <v>3032.839776521821</v>
       </c>
       <c r="X29" t="n">
-        <v>2707.75818012475</v>
+        <v>2707.758180124749</v>
       </c>
       <c r="Y29" t="n">
-        <v>2366.003010012946</v>
+        <v>2366.003010012944</v>
       </c>
     </row>
     <row r="30">
@@ -6528,16 +6528,16 @@
         <v>464.2061016507203</v>
       </c>
       <c r="F30" t="n">
-        <v>317.6715436776053</v>
+        <v>317.6715436776052</v>
       </c>
       <c r="G30" t="n">
         <v>181.2837982663734</v>
       </c>
       <c r="H30" t="n">
-        <v>90.54388273337453</v>
+        <v>90.54388273337449</v>
       </c>
       <c r="I30" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J30" t="n">
         <v>172.3112574064236</v>
@@ -6546,16 +6546,16 @@
         <v>406.6749853325574</v>
       </c>
       <c r="L30" t="n">
-        <v>796.6986944040993</v>
+        <v>768.128480964808</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.854743319223</v>
+        <v>1209.284529879931</v>
       </c>
       <c r="N30" t="n">
-        <v>1705.095525064084</v>
+        <v>1676.525311624793</v>
       </c>
       <c r="O30" t="n">
-        <v>2110.309762265828</v>
+        <v>2081.739548826537</v>
       </c>
       <c r="P30" t="n">
         <v>2416.19684569515</v>
@@ -6598,10 +6598,10 @@
         <v>768.1542365433627</v>
       </c>
       <c r="C31" t="n">
-        <v>647.6022154794629</v>
+        <v>647.602215479463</v>
       </c>
       <c r="D31" t="n">
-        <v>545.8697379311343</v>
+        <v>545.8697379311344</v>
       </c>
       <c r="E31" t="n">
         <v>446.3408062127484</v>
@@ -6610,46 +6610,46 @@
         <v>347.8350205788452</v>
       </c>
       <c r="G31" t="n">
-        <v>228.4956840730149</v>
+        <v>228.495684073015</v>
       </c>
       <c r="H31" t="n">
-        <v>130.4789574623694</v>
+        <v>130.4789574623698</v>
       </c>
       <c r="I31" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J31" t="n">
-        <v>172.0283209136809</v>
+        <v>172.0283209136806</v>
       </c>
       <c r="K31" t="n">
-        <v>421.0840721851844</v>
+        <v>421.0840721851838</v>
       </c>
       <c r="L31" t="n">
-        <v>782.054479337661</v>
+        <v>782.0544793376605</v>
       </c>
       <c r="M31" t="n">
-        <v>1170.458472169177</v>
+        <v>1170.458472169176</v>
       </c>
       <c r="N31" t="n">
-        <v>1556.189275526047</v>
+        <v>1556.189275526046</v>
       </c>
       <c r="O31" t="n">
-        <v>1900.077864642503</v>
+        <v>1900.077864642502</v>
       </c>
       <c r="P31" t="n">
         <v>2177.657467019334</v>
       </c>
       <c r="Q31" t="n">
-        <v>2300.993370632403</v>
+        <v>2300.993370632402</v>
       </c>
       <c r="R31" t="n">
-        <v>2258.618048085067</v>
+        <v>2258.618048085066</v>
       </c>
       <c r="S31" t="n">
-        <v>2114.956247918495</v>
+        <v>2114.956247918494</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.48551235256</v>
+        <v>1941.485512352559</v>
       </c>
       <c r="U31" t="n">
         <v>1700.765680337962</v>
@@ -6658,7 +6658,7 @@
         <v>1494.465353996082</v>
       </c>
       <c r="W31" t="n">
-        <v>1253.432345823129</v>
+        <v>1253.432345823128</v>
       </c>
       <c r="X31" t="n">
         <v>1073.826956789118</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2027.787331812832</v>
+        <v>2027.787331812831</v>
       </c>
       <c r="C32" t="n">
-        <v>1707.208976736427</v>
+        <v>1707.208976736426</v>
       </c>
       <c r="D32" t="n">
-        <v>1397.327439993684</v>
+        <v>1397.327439993683</v>
       </c>
       <c r="E32" t="n">
-        <v>1059.923349259447</v>
+        <v>1059.923349259446</v>
       </c>
       <c r="F32" t="n">
-        <v>697.3216063338465</v>
+        <v>697.3216063338455</v>
       </c>
       <c r="G32" t="n">
         <v>330.587256227666</v>
       </c>
       <c r="H32" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="I32" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J32" t="n">
-        <v>265.9635769441827</v>
+        <v>265.9635769441826</v>
       </c>
       <c r="K32" t="n">
-        <v>594.0403137998691</v>
+        <v>914.9442722453221</v>
       </c>
       <c r="L32" t="n">
-        <v>1037.950278256818</v>
+        <v>1421.243070941649</v>
       </c>
       <c r="M32" t="n">
-        <v>2005.259334497641</v>
+        <v>1946.84787613729</v>
       </c>
       <c r="N32" t="n">
-        <v>2543.982783323087</v>
+        <v>2485.571324962736</v>
       </c>
       <c r="O32" t="n">
-        <v>3039.348798403034</v>
+        <v>3357.929519492801</v>
       </c>
       <c r="P32" t="n">
-        <v>3746.211951806776</v>
+        <v>3746.211951806775</v>
       </c>
       <c r="Q32" t="n">
-        <v>3989.623141459239</v>
+        <v>3989.623141459238</v>
       </c>
       <c r="R32" t="n">
-        <v>4045.804356784975</v>
+        <v>4045.804356784974</v>
       </c>
       <c r="S32" t="n">
-        <v>3982.848216562599</v>
+        <v>3982.848216562598</v>
       </c>
       <c r="T32" t="n">
-        <v>3825.052995214865</v>
+        <v>3825.052995214864</v>
       </c>
       <c r="U32" t="n">
-        <v>3619.902995407494</v>
+        <v>3619.902995407493</v>
       </c>
       <c r="V32" t="n">
-        <v>3337.224269927931</v>
+        <v>3337.22426992793</v>
       </c>
       <c r="W32" t="n">
-        <v>3032.839776521824</v>
+        <v>3032.839776521822</v>
       </c>
       <c r="X32" t="n">
-        <v>2707.758180124751</v>
+        <v>2707.75818012475</v>
       </c>
       <c r="Y32" t="n">
-        <v>2366.003010012947</v>
+        <v>2366.003010012945</v>
       </c>
     </row>
     <row r="33">
@@ -6765,16 +6765,16 @@
         <v>464.2061016507203</v>
       </c>
       <c r="F33" t="n">
-        <v>317.6715436776053</v>
+        <v>317.6715436776052</v>
       </c>
       <c r="G33" t="n">
         <v>181.2837982663734</v>
       </c>
       <c r="H33" t="n">
-        <v>90.54388273337453</v>
+        <v>90.5438827333745</v>
       </c>
       <c r="I33" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J33" t="n">
         <v>172.3112574064236</v>
@@ -6786,13 +6786,13 @@
         <v>768.128480964808</v>
       </c>
       <c r="M33" t="n">
-        <v>1209.284529879931</v>
+        <v>1237.854743319223</v>
       </c>
       <c r="N33" t="n">
-        <v>1676.525311624793</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O33" t="n">
-        <v>2081.739548826537</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P33" t="n">
         <v>2416.19684569515</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.1542365433631</v>
+        <v>768.1542365433629</v>
       </c>
       <c r="C34" t="n">
-        <v>647.6022154794633</v>
+        <v>647.6022154794631</v>
       </c>
       <c r="D34" t="n">
-        <v>545.8697379311348</v>
+        <v>545.8697379311345</v>
       </c>
       <c r="E34" t="n">
-        <v>446.3408062127488</v>
+        <v>446.3408062127486</v>
       </c>
       <c r="F34" t="n">
-        <v>347.8350205788456</v>
+        <v>347.8350205788454</v>
       </c>
       <c r="G34" t="n">
-        <v>228.4956840730153</v>
+        <v>228.4956840730151</v>
       </c>
       <c r="H34" t="n">
         <v>130.4789574623698</v>
       </c>
       <c r="I34" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J34" t="n">
         <v>172.0283209136809</v>
       </c>
       <c r="K34" t="n">
-        <v>421.0840721851844</v>
+        <v>421.0840721851843</v>
       </c>
       <c r="L34" t="n">
         <v>782.054479337661</v>
@@ -6871,7 +6871,7 @@
         <v>1556.189275526047</v>
       </c>
       <c r="O34" t="n">
-        <v>1900.077864642502</v>
+        <v>1900.077864642503</v>
       </c>
       <c r="P34" t="n">
         <v>2177.657467019334</v>
@@ -6895,13 +6895,13 @@
         <v>1494.465353996082</v>
       </c>
       <c r="W34" t="n">
-        <v>1253.432345823129</v>
+        <v>1253.432345823128</v>
       </c>
       <c r="X34" t="n">
-        <v>1073.826956789119</v>
+        <v>1073.826956789118</v>
       </c>
       <c r="Y34" t="n">
-        <v>901.4185395095957</v>
+        <v>901.4185395095955</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2027.78733181283</v>
       </c>
       <c r="C35" t="n">
-        <v>1707.208976736426</v>
+        <v>1707.208976736425</v>
       </c>
       <c r="D35" t="n">
         <v>1397.327439993682</v>
@@ -6929,55 +6929,55 @@
         <v>330.587256227666</v>
       </c>
       <c r="H35" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="I35" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J35" t="n">
-        <v>265.9635769441826</v>
+        <v>433.3692259645356</v>
       </c>
       <c r="K35" t="n">
-        <v>594.040313799869</v>
+        <v>1082.349921265675</v>
       </c>
       <c r="L35" t="n">
-        <v>1037.950278256817</v>
+        <v>1526.259885722624</v>
       </c>
       <c r="M35" t="n">
-        <v>1563.555083452459</v>
+        <v>2051.864690918265</v>
       </c>
       <c r="N35" t="n">
-        <v>2102.278532277905</v>
+        <v>2590.588139743712</v>
       </c>
       <c r="O35" t="n">
-        <v>2764.097701975475</v>
+        <v>3292.870263818548</v>
       </c>
       <c r="P35" t="n">
-        <v>3470.960855379217</v>
+        <v>3681.152696132522</v>
       </c>
       <c r="Q35" t="n">
-        <v>3924.563885784985</v>
+        <v>3924.563885784984</v>
       </c>
       <c r="R35" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S35" t="n">
-        <v>3982.848216562598</v>
+        <v>3982.848216562597</v>
       </c>
       <c r="T35" t="n">
         <v>3825.052995214864</v>
       </c>
       <c r="U35" t="n">
-        <v>3619.902995407493</v>
+        <v>3619.902995407492</v>
       </c>
       <c r="V35" t="n">
-        <v>3337.22426992793</v>
+        <v>3337.224269927929</v>
       </c>
       <c r="W35" t="n">
         <v>3032.839776521822</v>
       </c>
       <c r="X35" t="n">
-        <v>2707.75818012475</v>
+        <v>2707.758180124749</v>
       </c>
       <c r="Y35" t="n">
         <v>2366.003010012945</v>
@@ -7008,10 +7008,10 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H36" t="n">
-        <v>90.5438827333745</v>
+        <v>90.54388273337449</v>
       </c>
       <c r="I36" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J36" t="n">
         <v>172.3112574064236</v>
@@ -7072,10 +7072,10 @@
         <v>768.1542365433629</v>
       </c>
       <c r="C37" t="n">
-        <v>647.6022154794631</v>
+        <v>647.6022154794632</v>
       </c>
       <c r="D37" t="n">
-        <v>545.8697379311345</v>
+        <v>545.8697379311346</v>
       </c>
       <c r="E37" t="n">
         <v>446.3408062127486</v>
@@ -7084,34 +7084,34 @@
         <v>347.8350205788454</v>
       </c>
       <c r="G37" t="n">
-        <v>228.4956840730151</v>
+        <v>228.4956840730152</v>
       </c>
       <c r="H37" t="n">
-        <v>130.4789574623696</v>
+        <v>130.4789574623698</v>
       </c>
       <c r="I37" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J37" t="n">
-        <v>172.0283209136805</v>
+        <v>172.0283209136809</v>
       </c>
       <c r="K37" t="n">
-        <v>421.084072185184</v>
+        <v>421.0840721851846</v>
       </c>
       <c r="L37" t="n">
-        <v>782.0544793376606</v>
+        <v>782.0544793376612</v>
       </c>
       <c r="M37" t="n">
         <v>1170.458472169177</v>
       </c>
       <c r="N37" t="n">
-        <v>1556.189275526047</v>
+        <v>1556.189275526048</v>
       </c>
       <c r="O37" t="n">
         <v>1900.077864642503</v>
       </c>
       <c r="P37" t="n">
-        <v>2177.657467019334</v>
+        <v>2177.657467019335</v>
       </c>
       <c r="Q37" t="n">
         <v>2300.993370632403</v>
@@ -7126,10 +7126,10 @@
         <v>1941.48551235256</v>
       </c>
       <c r="U37" t="n">
-        <v>1700.765680337962</v>
+        <v>1700.765680337963</v>
       </c>
       <c r="V37" t="n">
-        <v>1494.465353996082</v>
+        <v>1494.465353996083</v>
       </c>
       <c r="W37" t="n">
         <v>1253.432345823129</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2027.787331812831</v>
+        <v>2027.78733181283</v>
       </c>
       <c r="C38" t="n">
-        <v>1707.208976736427</v>
+        <v>1707.208976736426</v>
       </c>
       <c r="D38" t="n">
-        <v>1397.327439993684</v>
+        <v>1397.327439993682</v>
       </c>
       <c r="E38" t="n">
-        <v>1059.923349259446</v>
+        <v>1059.923349259445</v>
       </c>
       <c r="F38" t="n">
-        <v>697.321606333846</v>
+        <v>697.321606333845</v>
       </c>
       <c r="G38" t="n">
         <v>330.587256227666</v>
       </c>
       <c r="H38" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="I38" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J38" t="n">
-        <v>265.9635769441827</v>
+        <v>433.3692259645356</v>
       </c>
       <c r="K38" t="n">
-        <v>594.0403137998691</v>
+        <v>761.445962820222</v>
       </c>
       <c r="L38" t="n">
-        <v>1037.950278256818</v>
+        <v>1205.355927277171</v>
       </c>
       <c r="M38" t="n">
-        <v>1563.555083452459</v>
+        <v>1730.960732472812</v>
       </c>
       <c r="N38" t="n">
-        <v>2102.278532277905</v>
+        <v>2269.684181298258</v>
       </c>
       <c r="O38" t="n">
-        <v>2974.636726807971</v>
+        <v>3082.678423065242</v>
       </c>
       <c r="P38" t="n">
-        <v>3470.960855379217</v>
+        <v>3470.960855379216</v>
       </c>
       <c r="Q38" t="n">
-        <v>3924.563885784986</v>
+        <v>3924.563885784984</v>
       </c>
       <c r="R38" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S38" t="n">
-        <v>3982.848216562598</v>
+        <v>3982.848216562597</v>
       </c>
       <c r="T38" t="n">
-        <v>3825.052995214865</v>
+        <v>3825.052995214864</v>
       </c>
       <c r="U38" t="n">
-        <v>3619.902995407494</v>
+        <v>3619.902995407493</v>
       </c>
       <c r="V38" t="n">
         <v>3337.22426992793</v>
       </c>
       <c r="W38" t="n">
-        <v>3032.839776521823</v>
+        <v>3032.839776521822</v>
       </c>
       <c r="X38" t="n">
-        <v>2707.758180124751</v>
+        <v>2707.75818012475</v>
       </c>
       <c r="Y38" t="n">
-        <v>2366.003010012946</v>
+        <v>2366.003010012945</v>
       </c>
     </row>
     <row r="39">
@@ -7239,28 +7239,28 @@
         <v>464.2061016507203</v>
       </c>
       <c r="F39" t="n">
-        <v>317.6715436776053</v>
+        <v>317.6715436776052</v>
       </c>
       <c r="G39" t="n">
         <v>181.2837982663734</v>
       </c>
       <c r="H39" t="n">
-        <v>90.54388273337452</v>
+        <v>90.54388273337449</v>
       </c>
       <c r="I39" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J39" t="n">
-        <v>172.3112574064236</v>
+        <v>200.8814708457149</v>
       </c>
       <c r="K39" t="n">
-        <v>406.6749853325574</v>
+        <v>435.2451987718487</v>
       </c>
       <c r="L39" t="n">
-        <v>768.128480964808</v>
+        <v>796.6986944040993</v>
       </c>
       <c r="M39" t="n">
-        <v>1209.284529879931</v>
+        <v>1237.854743319223</v>
       </c>
       <c r="N39" t="n">
         <v>1705.095525064084</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.1542365433631</v>
+        <v>768.1542365433629</v>
       </c>
       <c r="C40" t="n">
-        <v>647.6022154794633</v>
+        <v>647.6022154794631</v>
       </c>
       <c r="D40" t="n">
-        <v>545.8697379311348</v>
+        <v>545.8697379311345</v>
       </c>
       <c r="E40" t="n">
-        <v>446.3408062127488</v>
+        <v>446.3408062127486</v>
       </c>
       <c r="F40" t="n">
-        <v>347.8350205788456</v>
+        <v>347.8350205788454</v>
       </c>
       <c r="G40" t="n">
-        <v>228.4956840730153</v>
+        <v>228.4956840730151</v>
       </c>
       <c r="H40" t="n">
-        <v>130.4789574623698</v>
+        <v>130.4789574623694</v>
       </c>
       <c r="I40" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J40" t="n">
         <v>172.0283209136809</v>
       </c>
       <c r="K40" t="n">
-        <v>421.0840721851844</v>
+        <v>421.0840721851843</v>
       </c>
       <c r="L40" t="n">
-        <v>782.0544793376619</v>
+        <v>782.054479337661</v>
       </c>
       <c r="M40" t="n">
-        <v>1170.458472169178</v>
+        <v>1170.458472169177</v>
       </c>
       <c r="N40" t="n">
-        <v>1556.189275526048</v>
+        <v>1556.189275526047</v>
       </c>
       <c r="O40" t="n">
-        <v>1900.077864642504</v>
+        <v>1900.077864642503</v>
       </c>
       <c r="P40" t="n">
         <v>2177.657467019335</v>
       </c>
       <c r="Q40" t="n">
-        <v>2300.993370632404</v>
+        <v>2300.993370632403</v>
       </c>
       <c r="R40" t="n">
         <v>2258.618048085067</v>
@@ -7372,10 +7372,10 @@
         <v>1253.432345823129</v>
       </c>
       <c r="X40" t="n">
-        <v>1073.826956789119</v>
+        <v>1073.826956789118</v>
       </c>
       <c r="Y40" t="n">
-        <v>901.4185395095957</v>
+        <v>901.4185395095955</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2027.787331812831</v>
       </c>
       <c r="C41" t="n">
-        <v>1707.208976736426</v>
+        <v>1707.208976736427</v>
       </c>
       <c r="D41" t="n">
         <v>1397.327439993683</v>
@@ -7397,10 +7397,10 @@
         <v>1059.923349259446</v>
       </c>
       <c r="F41" t="n">
-        <v>697.321606333845</v>
+        <v>697.3216063338457</v>
       </c>
       <c r="G41" t="n">
-        <v>330.5872562276661</v>
+        <v>330.587256227666</v>
       </c>
       <c r="H41" t="n">
         <v>80.91608713569948</v>
@@ -7418,19 +7418,19 @@
         <v>1618.840529682117</v>
       </c>
       <c r="M41" t="n">
-        <v>2258.780799913156</v>
+        <v>2144.445334877758</v>
       </c>
       <c r="N41" t="n">
-        <v>2797.504248738602</v>
+        <v>2862.563504412854</v>
       </c>
       <c r="O41" t="n">
-        <v>3292.870263818549</v>
+        <v>3357.929519492802</v>
       </c>
       <c r="P41" t="n">
-        <v>3681.152696132523</v>
+        <v>3746.211951806776</v>
       </c>
       <c r="Q41" t="n">
-        <v>3924.563885784986</v>
+        <v>3989.623141459238</v>
       </c>
       <c r="R41" t="n">
         <v>4045.804356784974</v>
@@ -7451,7 +7451,7 @@
         <v>3032.839776521823</v>
       </c>
       <c r="X41" t="n">
-        <v>2707.75818012475</v>
+        <v>2707.758180124751</v>
       </c>
       <c r="Y41" t="n">
         <v>2366.003010012946</v>
@@ -7497,10 +7497,10 @@
         <v>768.128480964808</v>
       </c>
       <c r="M42" t="n">
-        <v>1209.284529879931</v>
+        <v>1237.854743319223</v>
       </c>
       <c r="N42" t="n">
-        <v>1676.525311624793</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O42" t="n">
         <v>2110.309762265828</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.1542365433637</v>
+        <v>768.1542365433634</v>
       </c>
       <c r="C43" t="n">
-        <v>647.6022154794639</v>
+        <v>647.6022154794636</v>
       </c>
       <c r="D43" t="n">
-        <v>545.8697379311352</v>
+        <v>545.869737931135</v>
       </c>
       <c r="E43" t="n">
-        <v>446.3408062127492</v>
+        <v>446.340806212749</v>
       </c>
       <c r="F43" t="n">
-        <v>347.8350205788458</v>
+        <v>347.8350205788457</v>
       </c>
       <c r="G43" t="n">
-        <v>228.4956840730155</v>
+        <v>228.4956840730152</v>
       </c>
       <c r="H43" t="n">
         <v>130.4789574623699</v>
@@ -7567,52 +7567,52 @@
         <v>80.91608713569948</v>
       </c>
       <c r="J43" t="n">
-        <v>172.0283209136828</v>
+        <v>172.0283209136811</v>
       </c>
       <c r="K43" t="n">
-        <v>421.0840721851862</v>
+        <v>421.0840721851845</v>
       </c>
       <c r="L43" t="n">
-        <v>782.0544793376628</v>
+        <v>782.0544793376612</v>
       </c>
       <c r="M43" t="n">
-        <v>1170.458472169179</v>
+        <v>1170.458472169177</v>
       </c>
       <c r="N43" t="n">
-        <v>1556.189275526049</v>
+        <v>1556.189275526047</v>
       </c>
       <c r="O43" t="n">
-        <v>1900.077864642505</v>
+        <v>1900.077864642503</v>
       </c>
       <c r="P43" t="n">
-        <v>2177.657467019336</v>
+        <v>2177.657467019335</v>
       </c>
       <c r="Q43" t="n">
-        <v>2300.993370632405</v>
+        <v>2300.993370632403</v>
       </c>
       <c r="R43" t="n">
-        <v>2258.618048085068</v>
+        <v>2258.618048085067</v>
       </c>
       <c r="S43" t="n">
-        <v>2114.956247918496</v>
+        <v>2114.956247918495</v>
       </c>
       <c r="T43" t="n">
-        <v>1941.485512352561</v>
+        <v>1941.48551235256</v>
       </c>
       <c r="U43" t="n">
-        <v>1700.765680337963</v>
+        <v>1700.765680337962</v>
       </c>
       <c r="V43" t="n">
         <v>1494.465353996083</v>
       </c>
       <c r="W43" t="n">
-        <v>1253.43234582313</v>
+        <v>1253.432345823129</v>
       </c>
       <c r="X43" t="n">
         <v>1073.826956789119</v>
       </c>
       <c r="Y43" t="n">
-        <v>901.4185395095964</v>
+        <v>901.418539509596</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2027.787331812831</v>
+        <v>2027.78733181283</v>
       </c>
       <c r="C44" t="n">
         <v>1707.208976736426</v>
@@ -7640,31 +7640,31 @@
         <v>330.587256227666</v>
       </c>
       <c r="H44" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="I44" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J44" t="n">
-        <v>265.9635769441826</v>
+        <v>265.9635769441827</v>
       </c>
       <c r="K44" t="n">
-        <v>594.040313799869</v>
+        <v>594.0403137998691</v>
       </c>
       <c r="L44" t="n">
-        <v>1037.950278256817</v>
+        <v>1037.950278256818</v>
       </c>
       <c r="M44" t="n">
-        <v>2005.25933449764</v>
+        <v>2008.573481610364</v>
       </c>
       <c r="N44" t="n">
-        <v>2543.982783323086</v>
+        <v>2547.296930435809</v>
       </c>
       <c r="O44" t="n">
-        <v>3039.348798403033</v>
+        <v>3042.662945515757</v>
       </c>
       <c r="P44" t="n">
-        <v>3746.211951806775</v>
+        <v>3536.02011105347</v>
       </c>
       <c r="Q44" t="n">
         <v>3989.623141459238</v>
@@ -7676,7 +7676,7 @@
         <v>3982.848216562598</v>
       </c>
       <c r="T44" t="n">
-        <v>3825.052995214864</v>
+        <v>3825.052995214865</v>
       </c>
       <c r="U44" t="n">
         <v>3619.902995407493</v>
@@ -7713,16 +7713,16 @@
         <v>464.2061016507203</v>
       </c>
       <c r="F45" t="n">
-        <v>317.6715436776052</v>
+        <v>317.6715436776053</v>
       </c>
       <c r="G45" t="n">
         <v>181.2837982663734</v>
       </c>
       <c r="H45" t="n">
-        <v>90.5438827333745</v>
+        <v>90.54388273337452</v>
       </c>
       <c r="I45" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J45" t="n">
         <v>172.3112574064236</v>
@@ -7734,19 +7734,19 @@
         <v>768.128480964808</v>
       </c>
       <c r="M45" t="n">
-        <v>1209.284529879931</v>
+        <v>1237.854743319223</v>
       </c>
       <c r="N45" t="n">
-        <v>1676.525311624793</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O45" t="n">
-        <v>2081.739548826537</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P45" t="n">
-        <v>2387.626632255859</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q45" t="n">
-        <v>2542.18485042445</v>
+        <v>2570.755063863742</v>
       </c>
       <c r="R45" t="n">
         <v>2570.755063863742</v>
@@ -7780,64 +7780,64 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.1542365433631</v>
+        <v>768.1542365433634</v>
       </c>
       <c r="C46" t="n">
-        <v>647.6022154794633</v>
+        <v>647.6022154794636</v>
       </c>
       <c r="D46" t="n">
-        <v>545.8697379311348</v>
+        <v>545.869737931135</v>
       </c>
       <c r="E46" t="n">
-        <v>446.3408062127488</v>
+        <v>446.3408062127489</v>
       </c>
       <c r="F46" t="n">
-        <v>347.8350205788456</v>
+        <v>347.8350205788457</v>
       </c>
       <c r="G46" t="n">
-        <v>228.4956840730153</v>
+        <v>228.4956840730154</v>
       </c>
       <c r="H46" t="n">
-        <v>130.4789574623698</v>
+        <v>130.4789574623699</v>
       </c>
       <c r="I46" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J46" t="n">
         <v>172.0283209136809</v>
       </c>
       <c r="K46" t="n">
-        <v>421.0840721851843</v>
+        <v>421.0840721851844</v>
       </c>
       <c r="L46" t="n">
-        <v>782.054479337661</v>
+        <v>782.0544793376623</v>
       </c>
       <c r="M46" t="n">
-        <v>1170.458472169177</v>
+        <v>1170.458472169178</v>
       </c>
       <c r="N46" t="n">
-        <v>1556.189275526047</v>
+        <v>1556.189275526049</v>
       </c>
       <c r="O46" t="n">
-        <v>1900.077864642503</v>
+        <v>1900.077864642504</v>
       </c>
       <c r="P46" t="n">
-        <v>2177.657467019334</v>
+        <v>2177.657467019336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2300.993370632403</v>
+        <v>2300.993370632404</v>
       </c>
       <c r="R46" t="n">
-        <v>2258.618048085067</v>
+        <v>2258.618048085068</v>
       </c>
       <c r="S46" t="n">
-        <v>2114.956247918495</v>
+        <v>2114.956247918496</v>
       </c>
       <c r="T46" t="n">
         <v>1941.48551235256</v>
       </c>
       <c r="U46" t="n">
-        <v>1700.765680337962</v>
+        <v>1700.765680337963</v>
       </c>
       <c r="V46" t="n">
         <v>1494.465353996083</v>
@@ -7849,7 +7849,7 @@
         <v>1073.826956789119</v>
       </c>
       <c r="Y46" t="n">
-        <v>901.4185395095957</v>
+        <v>901.418539509596</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>258.0743794427063</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M2" t="n">
         <v>269.9301101891133</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>269.2175241529953</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8061,22 @@
         <v>177.4253159361996</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O3" t="n">
-        <v>180.5807728421703</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
         <v>268.9969405584315</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>269.2175241529953</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>180.1185623197441</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N6" t="n">
         <v>170.9255890451739</v>
@@ -8310,7 +8310,7 @@
         <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M8" t="n">
         <v>269.9301101891133</v>
       </c>
       <c r="N8" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
         <v>270.8168727171101</v>
@@ -8535,10 +8535,10 @@
         <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8550,7 +8550,7 @@
         <v>173.5582843761708</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,10 +8778,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>88.35414359199683</v>
       </c>
       <c r="O12" t="n">
-        <v>128.3851818425851</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.490631560732709</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,22 +8927,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>264.9012740331626</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>56.30407770249974</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9015,10 +9015,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>28.8588014538297</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>28.85880145382981</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9164,25 +9164,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>252.7346649523154</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>56.3040777024988</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>28.85880145382964</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>30.51657663960875</v>
+        <v>1.657775185779087</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,25 +9401,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>106.1360941653927</v>
+        <v>122.0204975754817</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>28.85880145382981</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>28.85880145382953</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9638,19 +9638,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>6.472281334981403</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>318.4510848252964</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>28.85880145382964</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>28.85880145382981</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>95.8046588610888</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>318.4510848252976</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,13 +9963,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>28.8588014538297</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>28.85880145382953</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10115,16 +10115,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>387.1644370553854</v>
+        <v>350.3034037676786</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>28.85880145382959</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>28.85880145382953</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10349,22 +10349,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>63.01902448422015</v>
       </c>
       <c r="M32" t="n">
-        <v>446.1659101466481</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>28.85880145382959</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>28.85880145382953</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>168.1344996137597</v>
+        <v>209.0061707019078</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>320.8365926131677</v>
       </c>
       <c r="P38" t="n">
-        <v>109.1330265224972</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>28.85880145382963</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>28.8588014538297</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>115.4903687226235</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>181.2067885956062</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,13 +11145,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>28.85880145382959</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>28.85880145382981</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>446.1659101466474</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>106.1360941653933</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>28.85880145382959</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.51657663960875</v>
+        <v>1.657775185779087</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.082705318338</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>296.2563973803192</v>
       </c>
       <c r="I11" t="n">
         <v>47.78309830338685</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>112.8560859017321</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>204.6226586226522</v>
       </c>
       <c r="U11" t="n">
-        <v>52.38351066982406</v>
+        <v>251.0080503320927</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>350.2338541784266</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.66510137275201</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>59.62876122915526</v>
       </c>
       <c r="H13" t="n">
         <v>145.3970268884839</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.8574826379858</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2157769293808</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7015147005469</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>110.2268990655191</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9988200546644</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.472765519005452</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.85188956723013</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2129539398189</v>
+        <v>29.64116686374638</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>215.4385962378176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5.613287612504791e-13</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -26332,10 +26332,10 @@
         <v>123156.2654796425</v>
       </c>
       <c r="I2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="J2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="K2" t="n">
         <v>123156.2654796425</v>
@@ -26347,13 +26347,13 @@
         <v>123156.2654796425</v>
       </c>
       <c r="N2" t="n">
+        <v>123156.2654796425</v>
+      </c>
+      <c r="O2" t="n">
+        <v>123156.2654796425</v>
+      </c>
+      <c r="P2" t="n">
         <v>123156.2654796424</v>
-      </c>
-      <c r="O2" t="n">
-        <v>123156.2654796424</v>
-      </c>
-      <c r="P2" t="n">
-        <v>123156.2654796425</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>1065126.30634947</v>
       </c>
       <c r="F3" t="n">
-        <v>88335.22644493761</v>
+        <v>88335.22644493752</v>
       </c>
       <c r="G3" t="n">
-        <v>38320.25619629365</v>
+        <v>38320.25619629368</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380384</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>185095.3097139483</v>
       </c>
       <c r="N3" t="n">
-        <v>56117.93622877517</v>
+        <v>56117.93622877506</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>392795.5642185676</v>
       </c>
       <c r="D4" t="n">
-        <v>392795.5642185676</v>
+        <v>392795.5642185675</v>
       </c>
       <c r="E4" t="n">
         <v>8221.035297234874</v>
@@ -26430,34 +26430,34 @@
         <v>22517.82182439815</v>
       </c>
       <c r="G4" t="n">
+        <v>70715.86778327735</v>
+      </c>
+      <c r="H4" t="n">
+        <v>70715.86778327732</v>
+      </c>
+      <c r="I4" t="n">
+        <v>70715.86778327734</v>
+      </c>
+      <c r="J4" t="n">
+        <v>70715.86778327732</v>
+      </c>
+      <c r="K4" t="n">
         <v>70715.86778327737</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>70715.86778327735</v>
       </c>
-      <c r="I4" t="n">
-        <v>70715.86778327738</v>
-      </c>
-      <c r="J4" t="n">
-        <v>70715.86778327741</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>70715.86778327735</v>
-      </c>
-      <c r="L4" t="n">
-        <v>70715.86778327737</v>
-      </c>
-      <c r="M4" t="n">
-        <v>70715.86778327732</v>
       </c>
       <c r="N4" t="n">
         <v>70715.86778327735</v>
       </c>
       <c r="O4" t="n">
-        <v>70715.86778327731</v>
+        <v>70715.86778327735</v>
       </c>
       <c r="P4" t="n">
-        <v>70715.86778327734</v>
+        <v>70715.86778327735</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26479,37 @@
         <v>70449.84478294512</v>
       </c>
       <c r="F5" t="n">
-        <v>85006.07440486581</v>
+        <v>85006.07440486579</v>
       </c>
       <c r="G5" t="n">
-        <v>89033.00642757358</v>
+        <v>89033.00642757356</v>
       </c>
       <c r="H5" t="n">
         <v>89033.00642757356</v>
       </c>
       <c r="I5" t="n">
-        <v>89033.00642757358</v>
+        <v>89033.00642757356</v>
       </c>
       <c r="J5" t="n">
-        <v>89033.00642757358</v>
+        <v>89033.00642757356</v>
       </c>
       <c r="K5" t="n">
-        <v>89033.00642757359</v>
+        <v>89033.00642757356</v>
       </c>
       <c r="L5" t="n">
-        <v>89033.00642757359</v>
+        <v>89033.00642757356</v>
       </c>
       <c r="M5" t="n">
         <v>89033.00642757356</v>
       </c>
       <c r="N5" t="n">
+        <v>89033.00642757356</v>
+      </c>
+      <c r="O5" t="n">
         <v>89033.00642757358</v>
       </c>
-      <c r="O5" t="n">
-        <v>89033.00642757356</v>
-      </c>
       <c r="P5" t="n">
-        <v>89033.00642757356</v>
+        <v>89033.00642757358</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-318939.0660572879</v>
       </c>
       <c r="C6" t="n">
+        <v>-305673.598458205</v>
+      </c>
+      <c r="D6" t="n">
         <v>-305673.5984582049</v>
       </c>
-      <c r="D6" t="n">
-        <v>-305673.598458205</v>
-      </c>
       <c r="E6" t="n">
-        <v>-1044200.258465309</v>
+        <v>-1044592.914090564</v>
       </c>
       <c r="F6" t="n">
-        <v>-85338.4293052976</v>
+        <v>-85549.02217380975</v>
       </c>
       <c r="G6" t="n">
-        <v>-74912.86492750212</v>
+        <v>-74912.86492750206</v>
       </c>
       <c r="H6" t="n">
-        <v>-36592.60873120837</v>
+        <v>-36592.60873120835</v>
       </c>
       <c r="I6" t="n">
-        <v>-36592.60873120841</v>
+        <v>-36592.60873120831</v>
       </c>
       <c r="J6" t="n">
-        <v>-46949.49263501231</v>
+        <v>-46949.49263501214</v>
       </c>
       <c r="K6" t="n">
-        <v>-36592.60873120837</v>
+        <v>-36592.6087312084</v>
       </c>
       <c r="L6" t="n">
-        <v>-74912.86492750212</v>
+        <v>-74912.86492750207</v>
       </c>
       <c r="M6" t="n">
         <v>-221687.9184451567</v>
       </c>
       <c r="N6" t="n">
-        <v>-92710.54495998367</v>
+        <v>-92710.54495998344</v>
       </c>
       <c r="O6" t="n">
-        <v>-36592.60873120847</v>
+        <v>-36592.60873120843</v>
       </c>
       <c r="P6" t="n">
-        <v>-36592.60873120843</v>
+        <v>-36592.60873120857</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="H2" t="n">
         <v>47.90032024536707</v>
       </c>
       <c r="I2" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="J2" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="K2" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="L2" t="n">
         <v>47.90032024536707</v>
       </c>
       <c r="M2" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="N2" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="O2" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="P2" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>782.3300195355888</v>
+        <v>782.3300195355889</v>
       </c>
       <c r="F4" t="n">
         <v>1011.451089196243</v>
       </c>
       <c r="G4" t="n">
-        <v>1011.451089196244</v>
+        <v>1011.451089196243</v>
       </c>
       <c r="H4" t="n">
         <v>1011.451089196243</v>
       </c>
       <c r="I4" t="n">
-        <v>1011.451089196244</v>
+        <v>1011.451089196243</v>
       </c>
       <c r="J4" t="n">
         <v>1011.451089196243</v>
       </c>
       <c r="K4" t="n">
-        <v>1011.451089196244</v>
+        <v>1011.451089196243</v>
       </c>
       <c r="L4" t="n">
-        <v>1011.451089196244</v>
+        <v>1011.451089196243</v>
       </c>
       <c r="M4" t="n">
         <v>1011.451089196243</v>
       </c>
       <c r="N4" t="n">
-        <v>1011.451089196244</v>
+        <v>1011.451089196243</v>
       </c>
       <c r="O4" t="n">
         <v>1011.451089196244</v>
       </c>
       <c r="P4" t="n">
-        <v>1011.451089196243</v>
+        <v>1011.451089196244</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>742.7461425737482</v>
+        <v>742.7461425737483</v>
       </c>
       <c r="F4" t="n">
-        <v>229.1210696606546</v>
+        <v>229.1210696606543</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184047</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>742.746142573748</v>
+        <v>742.7461425737481</v>
       </c>
       <c r="N4" t="n">
-        <v>229.1210696606547</v>
+        <v>229.1210696606543</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>742.7461425737482</v>
+        <v>742.7461425737483</v>
       </c>
       <c r="N4" t="n">
-        <v>229.1210696606546</v>
+        <v>229.1210696606543</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>315.0991646588424</v>
       </c>
       <c r="E2" t="n">
-        <v>379.2343737156639</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,10 +27397,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,13 +27421,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>208.2826633697152</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27506,22 +27506,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X3" t="n">
-        <v>170.9075063754883</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0315960563718</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,7 +27552,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>152.2496201461753</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27582,13 +27582,13 @@
         <v>46.5781662898538</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>217.9680370670172</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="5">
@@ -27619,25 +27619,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2921687798708</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>9.253292998014649</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,25 +27658,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>341.6275167591714</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27713,10 +27713,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>54.53115402342591</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>66.03894665091181</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U6" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>138.6379206569481</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G7" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27795,10 +27795,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>68.78868335455726</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>369.8083514046488</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,7 +27907,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>238.6589573366938</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="9">
@@ -27938,16 +27938,16 @@
         <v>107.8611886027982</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F9" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27989,7 +27989,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>198.681699647694</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>171.5638082755731</v>
       </c>
     </row>
     <row r="10">
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>106.8500856847286</v>
       </c>
       <c r="F10" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>160.734867732301</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28062,7 +28062,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>276.5454459753267</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="C17" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="D17" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="E17" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="F17" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="H17" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="I17" t="n">
         <v>43.33496992146243</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="T17" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="U17" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="V17" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="W17" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="X17" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="C19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="D19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="E19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="F19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="G19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="H19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="I19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="J19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="K19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="L19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="M19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="N19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="O19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="P19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="R19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="S19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="T19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="U19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="V19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="W19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="X19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.90032024536707</v>
+        <v>47.9003202453671</v>
       </c>
     </row>
     <row r="20">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I23" t="n">
         <v>43.33496992146243</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="J25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="K25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="L25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="M25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="N25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="O25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="P25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="R25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="S25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C26" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D26" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E26" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F26" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G26" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H26" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I26" t="n">
         <v>43.33496992146243</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T26" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U26" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V26" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W26" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X26" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="J28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="K28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="L28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="M28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="N28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="O28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="P28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="R28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="S28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.90032024536713</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="C29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="D29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="E29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="F29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="G29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="H29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="I29" t="n">
         <v>43.33496992146243</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="T29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="U29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="V29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="W29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="X29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="C31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="D31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="E31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="F31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="G31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="H31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="I31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="J31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="K31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="L31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="M31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="N31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="O31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="P31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="R31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="S31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="T31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="U31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="V31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="W31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="X31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536709</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="C35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="D35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="E35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="F35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="G35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="H35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="I35" t="n">
         <v>43.33496992146243</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="T35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="U35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="V35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="W35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="X35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="C37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="D37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="E37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="F37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="G37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="H37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="I37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="J37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="K37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="L37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="M37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="N37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="O37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="P37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="R37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="S37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="T37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="U37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="V37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="W37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="X37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="C38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="D38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="E38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="F38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="G38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="H38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="I38" t="n">
         <v>43.33496992146243</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="T38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="U38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="V38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="W38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="X38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="C40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="D40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="E40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="F40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="G40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="H40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="I40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="J40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="K40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="L40" t="n">
-        <v>47.90032024536788</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="M40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="N40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="O40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="P40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="R40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="S40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="T40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="U40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="V40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="W40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="X40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536708</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="C41" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="D41" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="E41" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="F41" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="G41" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H41" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="I41" t="n">
         <v>43.33496992146243</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="T41" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="U41" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="V41" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="W41" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="X41" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="C43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="D43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="E43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="F43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="G43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="I43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="J43" t="n">
-        <v>47.90032024536897</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="K43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="L43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="M43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="N43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="O43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="P43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="R43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="S43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="T43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="U43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="V43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="W43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="X43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.90032024536698</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="C44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="D44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="E44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="F44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="G44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="I44" t="n">
         <v>43.33496992146243</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="T44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="U44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="V44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="W44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="X44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="C46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="D46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="E46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="F46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="G46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="I46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="J46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="K46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="L46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536833</v>
       </c>
       <c r="M46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="N46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="O46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="P46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="R46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="S46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="T46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="U46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="V46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="W46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="X46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M2" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M3" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="P5" t="n">
-        <v>37.98452839772582</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>37.98452839772582</v>
       </c>
       <c r="N6" t="n">
         <v>39.58387696184059</v>
@@ -35030,7 +35030,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M8" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P8" t="n">
         <v>39.58387696184059</v>
@@ -35255,10 +35255,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>429.9704559575144</v>
       </c>
       <c r="N12" t="n">
-        <v>455.9046812932708</v>
+        <v>544.2588248852676</v>
       </c>
       <c r="O12" t="n">
-        <v>523.0046594423681</v>
+        <v>394.619477599783</v>
       </c>
       <c r="P12" t="n">
         <v>297.1885713008351</v>
@@ -35510,7 +35510,7 @@
         <v>148.2392588628088</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>40.03103825058811</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>186.9166563722052</v>
       </c>
       <c r="K14" t="n">
-        <v>655.5360558597368</v>
+        <v>331.3906432885721</v>
       </c>
       <c r="L14" t="n">
-        <v>448.3939034918672</v>
+        <v>713.2951775250298</v>
       </c>
       <c r="M14" t="n">
         <v>530.9139446420623</v>
       </c>
       <c r="N14" t="n">
-        <v>544.1650998236828</v>
+        <v>981.512024235667</v>
       </c>
       <c r="O14" t="n">
-        <v>556.673789904467</v>
+        <v>500.3697122019672</v>
       </c>
       <c r="P14" t="n">
-        <v>714.0031852563047</v>
+        <v>392.204477084822</v>
       </c>
       <c r="Q14" t="n">
         <v>245.8698885378413</v>
@@ -35735,10 +35735,10 @@
         <v>445.6121706213368</v>
       </c>
       <c r="N15" t="n">
-        <v>500.8191870546997</v>
+        <v>471.96038560087</v>
       </c>
       <c r="O15" t="n">
-        <v>409.3073103047921</v>
+        <v>438.1661117586219</v>
       </c>
       <c r="P15" t="n">
         <v>308.9768519488098</v>
@@ -35884,25 +35884,25 @@
         <v>186.9166563722052</v>
       </c>
       <c r="K17" t="n">
-        <v>331.3906432885721</v>
+        <v>655.5360558597368</v>
       </c>
       <c r="L17" t="n">
         <v>448.3939034918672</v>
       </c>
       <c r="M17" t="n">
-        <v>980.4274781348948</v>
+        <v>530.9139446420623</v>
       </c>
       <c r="N17" t="n">
         <v>544.1650998236828</v>
       </c>
       <c r="O17" t="n">
-        <v>753.1043771542826</v>
+        <v>500.3697122019672</v>
       </c>
       <c r="P17" t="n">
-        <v>392.204477084822</v>
+        <v>714.0031852563047</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.8698885378413</v>
+        <v>302.1739662403401</v>
       </c>
       <c r="R17" t="n">
         <v>122.4651222222105</v>
@@ -35963,7 +35963,7 @@
         <v>92.31835380881222</v>
       </c>
       <c r="K18" t="n">
-        <v>236.7310383092261</v>
+        <v>265.5898397630557</v>
       </c>
       <c r="L18" t="n">
         <v>365.1045410426774</v>
@@ -35984,7 +35984,7 @@
         <v>156.1194122915068</v>
       </c>
       <c r="R18" t="n">
-        <v>28.85880145382966</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.03255937169844</v>
+        <v>92.03255937169847</v>
       </c>
       <c r="K19" t="n">
-        <v>251.5714659308115</v>
+        <v>251.5714659308116</v>
       </c>
       <c r="L19" t="n">
-        <v>364.6165728812895</v>
+        <v>364.6165728812896</v>
       </c>
       <c r="M19" t="n">
         <v>392.3272654863796</v>
@@ -36121,25 +36121,25 @@
         <v>186.9166563722052</v>
       </c>
       <c r="K20" t="n">
-        <v>331.3906432885721</v>
+        <v>655.5360558597368</v>
       </c>
       <c r="L20" t="n">
         <v>448.3939034918672</v>
       </c>
       <c r="M20" t="n">
-        <v>980.4274781348948</v>
+        <v>530.9139446420623</v>
       </c>
       <c r="N20" t="n">
-        <v>650.3011939890755</v>
+        <v>666.1855973991645</v>
       </c>
       <c r="O20" t="n">
         <v>500.3697122019672</v>
       </c>
       <c r="P20" t="n">
-        <v>392.204477084822</v>
+        <v>714.0031852563047</v>
       </c>
       <c r="Q20" t="n">
-        <v>458.184879197746</v>
+        <v>245.8698885378413</v>
       </c>
       <c r="R20" t="n">
         <v>56.7487023492281</v>
@@ -36212,10 +36212,10 @@
         <v>471.96038560087</v>
       </c>
       <c r="O21" t="n">
-        <v>438.1661117586219</v>
+        <v>409.3073103047921</v>
       </c>
       <c r="P21" t="n">
-        <v>308.9768519488098</v>
+        <v>337.8356534026394</v>
       </c>
       <c r="Q21" t="n">
         <v>156.1194122915068</v>
@@ -36358,19 +36358,19 @@
         <v>186.9166563722052</v>
       </c>
       <c r="K23" t="n">
-        <v>655.5360558597368</v>
+        <v>331.3906432885721</v>
       </c>
       <c r="L23" t="n">
         <v>448.3939034918672</v>
       </c>
       <c r="M23" t="n">
-        <v>537.3862259770438</v>
+        <v>980.4274781348948</v>
       </c>
       <c r="N23" t="n">
-        <v>981.512024235667</v>
+        <v>544.1650998236828</v>
       </c>
       <c r="O23" t="n">
-        <v>500.3697122019672</v>
+        <v>818.8207970272637</v>
       </c>
       <c r="P23" t="n">
         <v>392.204477084822</v>
@@ -36437,7 +36437,7 @@
         <v>92.31835380881222</v>
       </c>
       <c r="K24" t="n">
-        <v>236.7310383092261</v>
+        <v>265.5898397630557</v>
       </c>
       <c r="L24" t="n">
         <v>365.1045410426774</v>
@@ -36449,7 +36449,7 @@
         <v>471.96038560087</v>
       </c>
       <c r="O24" t="n">
-        <v>438.1661117586219</v>
+        <v>409.3073103047921</v>
       </c>
       <c r="P24" t="n">
         <v>308.9768519488098</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.03255937169845</v>
+        <v>92.03255937169844</v>
       </c>
       <c r="K25" t="n">
-        <v>251.5714659308116</v>
+        <v>251.5714659308115</v>
       </c>
       <c r="L25" t="n">
-        <v>364.6165728812896</v>
+        <v>364.6165728812895</v>
       </c>
       <c r="M25" t="n">
         <v>392.3272654863796</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.9166563722052</v>
+        <v>356.013271544279</v>
       </c>
       <c r="K26" t="n">
-        <v>331.3906432885721</v>
+        <v>427.1953021496609</v>
       </c>
       <c r="L26" t="n">
         <v>448.3939034918672</v>
       </c>
       <c r="M26" t="n">
-        <v>980.4274781348948</v>
+        <v>530.9139446420623</v>
       </c>
       <c r="N26" t="n">
-        <v>544.1650998236828</v>
+        <v>981.512024235667</v>
       </c>
       <c r="O26" t="n">
         <v>500.3697122019672</v>
       </c>
       <c r="P26" t="n">
-        <v>710.6555619101197</v>
+        <v>392.204477084822</v>
       </c>
       <c r="Q26" t="n">
         <v>245.8698885378413</v>
       </c>
       <c r="R26" t="n">
-        <v>56.7487023492281</v>
+        <v>122.4651222222105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,13 +36683,13 @@
         <v>445.6121706213368</v>
       </c>
       <c r="N27" t="n">
-        <v>500.8191870546997</v>
+        <v>471.96038560087</v>
       </c>
       <c r="O27" t="n">
         <v>409.3073103047921</v>
       </c>
       <c r="P27" t="n">
-        <v>308.9768519488098</v>
+        <v>337.8356534026394</v>
       </c>
       <c r="Q27" t="n">
         <v>156.1194122915068</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.0325593716985</v>
+        <v>92.03255937169844</v>
       </c>
       <c r="K28" t="n">
-        <v>251.5714659308116</v>
+        <v>251.5714659308115</v>
       </c>
       <c r="L28" t="n">
-        <v>364.6165728812896</v>
+        <v>364.6165728812895</v>
       </c>
       <c r="M28" t="n">
-        <v>392.3272654863797</v>
+        <v>392.3272654863796</v>
       </c>
       <c r="N28" t="n">
         <v>389.6270740978489</v>
       </c>
       <c r="O28" t="n">
-        <v>347.3622112287433</v>
+        <v>347.3622112287432</v>
       </c>
       <c r="P28" t="n">
         <v>280.3834367442745</v>
@@ -36835,16 +36835,16 @@
         <v>331.3906432885721</v>
       </c>
       <c r="L29" t="n">
-        <v>448.3939034918672</v>
+        <v>866.0551180423176</v>
       </c>
       <c r="M29" t="n">
-        <v>918.0783816974478</v>
+        <v>881.2173484097409</v>
       </c>
       <c r="N29" t="n">
         <v>544.1650998236828</v>
       </c>
       <c r="O29" t="n">
-        <v>881.1698934647126</v>
+        <v>500.3697122019672</v>
       </c>
       <c r="P29" t="n">
         <v>392.204477084822</v>
@@ -36914,7 +36914,7 @@
         <v>236.7310383092261</v>
       </c>
       <c r="L30" t="n">
-        <v>393.963342496507</v>
+        <v>365.1045410426774</v>
       </c>
       <c r="M30" t="n">
         <v>445.6121706213368</v>
@@ -36926,7 +36926,7 @@
         <v>409.3073103047921</v>
       </c>
       <c r="P30" t="n">
-        <v>308.9768519488098</v>
+        <v>337.8356534026394</v>
       </c>
       <c r="Q30" t="n">
         <v>156.1194122915068</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.03255937169843</v>
+        <v>92.03255937169845</v>
       </c>
       <c r="K31" t="n">
-        <v>251.5714659308115</v>
+        <v>251.5714659308116</v>
       </c>
       <c r="L31" t="n">
-        <v>364.6165728812895</v>
+        <v>364.6165728812896</v>
       </c>
       <c r="M31" t="n">
         <v>392.3272654863796</v>
@@ -37002,7 +37002,7 @@
         <v>389.6270740978489</v>
       </c>
       <c r="O31" t="n">
-        <v>347.3622112287431</v>
+        <v>347.3622112287432</v>
       </c>
       <c r="P31" t="n">
         <v>280.3834367442745</v>
@@ -37069,22 +37069,22 @@
         <v>186.9166563722052</v>
       </c>
       <c r="K32" t="n">
-        <v>331.3906432885721</v>
+        <v>655.5360558597368</v>
       </c>
       <c r="L32" t="n">
-        <v>448.3939034918672</v>
+        <v>511.4129279760874</v>
       </c>
       <c r="M32" t="n">
-        <v>977.0798547887105</v>
+        <v>530.9139446420623</v>
       </c>
       <c r="N32" t="n">
         <v>544.1650998236828</v>
       </c>
       <c r="O32" t="n">
-        <v>500.3697122019672</v>
+        <v>881.1698934647126</v>
       </c>
       <c r="P32" t="n">
-        <v>714.0031852563047</v>
+        <v>392.204477084822</v>
       </c>
       <c r="Q32" t="n">
         <v>245.8698885378413</v>
@@ -37154,7 +37154,7 @@
         <v>365.1045410426774</v>
       </c>
       <c r="M33" t="n">
-        <v>445.6121706213368</v>
+        <v>474.4709720751664</v>
       </c>
       <c r="N33" t="n">
         <v>471.96038560087</v>
@@ -37163,7 +37163,7 @@
         <v>409.3073103047921</v>
       </c>
       <c r="P33" t="n">
-        <v>337.8356534026394</v>
+        <v>308.9768519488098</v>
       </c>
       <c r="Q33" t="n">
         <v>156.1194122915068</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>186.9166563722052</v>
+        <v>356.013271544279</v>
       </c>
       <c r="K35" t="n">
-        <v>331.3906432885721</v>
+        <v>655.5360558597368</v>
       </c>
       <c r="L35" t="n">
         <v>448.3939034918672</v>
@@ -37318,13 +37318,13 @@
         <v>544.1650998236828</v>
       </c>
       <c r="O35" t="n">
-        <v>668.5042118157269</v>
+        <v>709.375882903875</v>
       </c>
       <c r="P35" t="n">
-        <v>714.0031852563047</v>
+        <v>392.204477084822</v>
       </c>
       <c r="Q35" t="n">
-        <v>458.184879197746</v>
+        <v>245.8698885378413</v>
       </c>
       <c r="R35" t="n">
         <v>122.4651222222105</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.03255937169843</v>
+        <v>92.03255937169845</v>
       </c>
       <c r="K37" t="n">
-        <v>251.5714659308115</v>
+        <v>251.5714659308116</v>
       </c>
       <c r="L37" t="n">
-        <v>364.6165728812895</v>
+        <v>364.6165728812896</v>
       </c>
       <c r="M37" t="n">
         <v>392.3272654863796</v>
@@ -37476,7 +37476,7 @@
         <v>389.6270740978489</v>
       </c>
       <c r="O37" t="n">
-        <v>347.3622112287431</v>
+        <v>347.3622112287432</v>
       </c>
       <c r="P37" t="n">
         <v>280.3834367442745</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>186.9166563722052</v>
+        <v>356.013271544279</v>
       </c>
       <c r="K38" t="n">
         <v>331.3906432885721</v>
@@ -37555,10 +37555,10 @@
         <v>544.1650998236828</v>
       </c>
       <c r="O38" t="n">
-        <v>881.1698934647126</v>
+        <v>821.2063048151349</v>
       </c>
       <c r="P38" t="n">
-        <v>501.3375036073193</v>
+        <v>392.204477084822</v>
       </c>
       <c r="Q38" t="n">
         <v>458.184879197746</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>92.31835380881222</v>
+        <v>121.1771552626418</v>
       </c>
       <c r="K39" t="n">
         <v>236.7310383092261</v>
@@ -37631,7 +37631,7 @@
         <v>445.6121706213368</v>
       </c>
       <c r="N39" t="n">
-        <v>500.8191870546997</v>
+        <v>471.96038560087</v>
       </c>
       <c r="O39" t="n">
         <v>409.3073103047921</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.03255937169843</v>
+        <v>92.03255937169845</v>
       </c>
       <c r="K40" t="n">
-        <v>251.5714659308115</v>
+        <v>251.5714659308116</v>
       </c>
       <c r="L40" t="n">
-        <v>364.6165728812904</v>
+        <v>364.6165728812896</v>
       </c>
       <c r="M40" t="n">
         <v>392.3272654863796</v>
@@ -37713,7 +37713,7 @@
         <v>389.6270740978489</v>
       </c>
       <c r="O40" t="n">
-        <v>347.3622112287431</v>
+        <v>347.3622112287432</v>
       </c>
       <c r="P40" t="n">
         <v>280.3834367442745</v>
@@ -37786,10 +37786,10 @@
         <v>866.0551180423176</v>
       </c>
       <c r="M41" t="n">
-        <v>646.4043133646859</v>
+        <v>530.9139446420623</v>
       </c>
       <c r="N41" t="n">
-        <v>544.1650998236828</v>
+        <v>725.371888419289</v>
       </c>
       <c r="O41" t="n">
         <v>500.3697122019672</v>
@@ -37801,7 +37801,7 @@
         <v>245.8698885378413</v>
       </c>
       <c r="R41" t="n">
-        <v>122.4651222222105</v>
+        <v>56.7487023492281</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>365.1045410426774</v>
       </c>
       <c r="M42" t="n">
-        <v>445.6121706213368</v>
+        <v>474.4709720751664</v>
       </c>
       <c r="N42" t="n">
         <v>471.96038560087</v>
       </c>
       <c r="O42" t="n">
-        <v>438.1661117586219</v>
+        <v>409.3073103047921</v>
       </c>
       <c r="P42" t="n">
         <v>308.9768519488098</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.03255937170034</v>
+        <v>92.03255937169841</v>
       </c>
       <c r="K43" t="n">
         <v>251.5714659308115</v>
@@ -37944,19 +37944,19 @@
         <v>364.6165728812895</v>
       </c>
       <c r="M43" t="n">
-        <v>392.3272654863795</v>
+        <v>392.3272654863796</v>
       </c>
       <c r="N43" t="n">
-        <v>389.6270740978488</v>
+        <v>389.6270740978489</v>
       </c>
       <c r="O43" t="n">
         <v>347.3622112287431</v>
       </c>
       <c r="P43" t="n">
-        <v>280.3834367442744</v>
+        <v>280.3834367442745</v>
       </c>
       <c r="Q43" t="n">
-        <v>124.5817208212811</v>
+        <v>124.5817208212812</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>448.3939034918672</v>
       </c>
       <c r="M44" t="n">
-        <v>977.0798547887098</v>
+        <v>980.4274781348948</v>
       </c>
       <c r="N44" t="n">
         <v>544.1650998236828</v>
@@ -38032,10 +38032,10 @@
         <v>500.3697122019672</v>
       </c>
       <c r="P44" t="n">
-        <v>714.0031852563047</v>
+        <v>498.3405712502153</v>
       </c>
       <c r="Q44" t="n">
-        <v>245.8698885378413</v>
+        <v>458.184879197746</v>
       </c>
       <c r="R44" t="n">
         <v>56.7487023492281</v>
@@ -38102,7 +38102,7 @@
         <v>365.1045410426774</v>
       </c>
       <c r="M45" t="n">
-        <v>445.6121706213368</v>
+        <v>474.4709720751664</v>
       </c>
       <c r="N45" t="n">
         <v>471.96038560087</v>
@@ -38117,7 +38117,7 @@
         <v>156.1194122915068</v>
       </c>
       <c r="R45" t="n">
-        <v>28.85880145382966</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.03255937169843</v>
+        <v>92.03255937169841</v>
       </c>
       <c r="K46" t="n">
         <v>251.5714659308115</v>
       </c>
       <c r="L46" t="n">
-        <v>364.6165728812895</v>
+        <v>364.6165728812908</v>
       </c>
       <c r="M46" t="n">
         <v>392.3272654863796</v>
